--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1435604.273508432</v>
+        <v>1390333.661180102</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4813841.518693744</v>
+        <v>4813841.518693741</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7820286.609760026</v>
+        <v>7820286.609760025</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>33.77513176069502</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>145.2340501748436</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="V11" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>39.78417732279858</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I12" t="n">
-        <v>55.35075020406402</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>186.2753358540408</v>
+        <v>53.92451860263277</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.5752192889694</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>47.83516494718578</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="U13" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,11 +1606,11 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.10387899147751</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>33.77513176069502</v>
       </c>
       <c r="S14" t="n">
         <v>166.905302944061</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>181.563513279305</v>
+      </c>
+      <c r="Y14" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>77.46875557949242</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.1789750447687</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="V15" t="n">
-        <v>203.2347660485225</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>28.41989248389156</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>162.2660428435259</v>
       </c>
       <c r="H16" t="n">
-        <v>154.8564539895622</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.74764850774388</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>48.79581025471249</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="W16" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>184.0777371438217</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>33.77513176069502</v>
       </c>
       <c r="S17" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>49.91600015569322</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>209.5690853592923</v>
       </c>
       <c r="T19" t="n">
-        <v>152.8528309416596</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>7.662169353869438</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>354.0118611631869</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>33.77513176069502</v>
       </c>
       <c r="S20" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>215.005563618935</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>277.8688663462769</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>136.3546685971475</v>
       </c>
       <c r="H21" t="n">
-        <v>102.6852488747806</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I21" t="n">
         <v>55.35075020406402</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>197.9800779867469</v>
+        <v>250.3020265327989</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>354.0265391395781</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>215.005563618935</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>6.057490921654612</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>119.7823663878908</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>172.1546591142239</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4545853860211</v>
+        <v>338.1308113446967</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1978007375074</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.34161248888172</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>224.4034240873793</v>
+        <v>164.587191158037</v>
       </c>
       <c r="U28" t="n">
-        <v>189.3823585242095</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>166.905302944061</v>
       </c>
       <c r="T29" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1978007375074</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>273.5612977624849</v>
+        <v>137.3572350316988</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,28 +2994,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>197.9800779867469</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>19.01117069874065</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5893673653786351</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>391.1007805283693</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3231,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>43.33783808849862</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>49.36460496853454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>112.575283713169</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>334.8005657020901</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.3546685971475</v>
       </c>
       <c r="H36" t="n">
-        <v>102.6852488747806</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I36" t="n">
         <v>55.35075020406402</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.8564539895622</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.53054734737525</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>119.6162628727313</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>107.9267654176218</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>369.1790114098781</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>33.77513176069502</v>
       </c>
       <c r="S38" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>215.005563618935</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I39" t="n">
-        <v>55.35075020406366</v>
+        <v>55.35075020406402</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.2753531215599</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>96.10535306956552</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>203.2347660485225</v>
       </c>
       <c r="H41" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>33.77513176069502</v>
       </c>
       <c r="S41" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>145.2340501748435</v>
       </c>
       <c r="U41" t="n">
-        <v>12.10387899147748</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3546685971475</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>38.61990737465375</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>80.23657140235183</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="W42" t="n">
         <v>203.2347660485225</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>154.8564539895622</v>
       </c>
       <c r="I43" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.74764850774388</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>7.40958885396368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.7274233220519</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>203.2347660485225</v>
+        <v>179.0091819355386</v>
       </c>
       <c r="G44" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="H44" t="n">
-        <v>39.78417732279855</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>32.12972425605153</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>113.0255154594129</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>102.6852488747809</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>55.35075020406402</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>153.3157426947255</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>24.15272794597653</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>154.8564539895622</v>
       </c>
       <c r="I46" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.74764850774388</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="T46" t="n">
-        <v>116.7394783721571</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.1777415477834</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="C11" t="n">
-        <v>362.1777415477834</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="D11" t="n">
-        <v>362.1777415477834</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="E11" t="n">
-        <v>156.8900990745283</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="F11" t="n">
-        <v>156.8900990745283</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="G11" t="n">
-        <v>156.8900990745283</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="H11" t="n">
-        <v>156.8900990745283</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="I11" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="J11" t="n">
         <v>159.7199905735174</v>
       </c>
       <c r="K11" t="n">
-        <v>174.5720006188284</v>
+        <v>262.6639359398617</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8989942425405</v>
+        <v>317.9909295635738</v>
       </c>
       <c r="M11" t="n">
-        <v>323.1303724634089</v>
+        <v>411.2223077844422</v>
       </c>
       <c r="N11" t="n">
-        <v>524.3327908514462</v>
+        <v>510.5760755541622</v>
       </c>
       <c r="O11" t="n">
-        <v>604.8144751677833</v>
+        <v>591.0577598704992</v>
       </c>
       <c r="P11" t="n">
-        <v>639.0027298632474</v>
+        <v>625.2460145659634</v>
       </c>
       <c r="Q11" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940904</v>
       </c>
       <c r="R11" t="n">
-        <v>812.9390641940902</v>
+        <v>778.8227694863176</v>
       </c>
       <c r="S11" t="n">
-        <v>812.9390641940902</v>
+        <v>632.1217087036473</v>
       </c>
       <c r="T11" t="n">
-        <v>812.9390641940902</v>
+        <v>632.1217087036473</v>
       </c>
       <c r="U11" t="n">
-        <v>812.9390641940902</v>
+        <v>426.8340662303922</v>
       </c>
       <c r="V11" t="n">
-        <v>607.6514217208351</v>
+        <v>221.546423757137</v>
       </c>
       <c r="W11" t="n">
-        <v>607.6514217208351</v>
+        <v>221.546423757137</v>
       </c>
       <c r="X11" t="n">
-        <v>567.4653840210385</v>
+        <v>221.546423757137</v>
       </c>
       <c r="Y11" t="n">
-        <v>362.1777415477834</v>
+        <v>221.546423757137</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>380.3404946415623</v>
+        <v>553.1822110111051</v>
       </c>
       <c r="C12" t="n">
-        <v>380.3404946415623</v>
+        <v>553.1822110111051</v>
       </c>
       <c r="D12" t="n">
-        <v>231.4060849803111</v>
+        <v>404.2478013498538</v>
       </c>
       <c r="E12" t="n">
-        <v>72.16862997485556</v>
+        <v>404.2478013498538</v>
       </c>
       <c r="F12" t="n">
-        <v>72.16862997485556</v>
+        <v>257.7132433767388</v>
       </c>
       <c r="G12" t="n">
-        <v>72.16862997485556</v>
+        <v>119.9812548947716</v>
       </c>
       <c r="H12" t="n">
-        <v>72.16862997485556</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="I12" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="J12" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="K12" t="n">
         <v>37.87634126146366</v>
       </c>
       <c r="L12" t="n">
-        <v>239.078759649501</v>
+        <v>113.2663595790752</v>
       </c>
       <c r="M12" t="n">
-        <v>395.4045153589527</v>
+        <v>220.5998232105567</v>
       </c>
       <c r="N12" t="n">
-        <v>519.987421307818</v>
+        <v>421.8022415985942</v>
       </c>
       <c r="O12" t="n">
-        <v>611.7366458060528</v>
+        <v>611.736645806053</v>
       </c>
       <c r="P12" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940904</v>
       </c>
       <c r="Q12" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940904</v>
       </c>
       <c r="R12" t="n">
-        <v>773.7850420178891</v>
+        <v>812.9390641940904</v>
       </c>
       <c r="S12" t="n">
-        <v>773.7850420178891</v>
+        <v>812.9390641940904</v>
       </c>
       <c r="T12" t="n">
-        <v>773.7850420178891</v>
+        <v>812.9390641940904</v>
       </c>
       <c r="U12" t="n">
-        <v>585.6281371148175</v>
+        <v>758.4698534843603</v>
       </c>
       <c r="V12" t="n">
-        <v>585.6281371148175</v>
+        <v>758.4698534843603</v>
       </c>
       <c r="W12" t="n">
-        <v>585.6281371148175</v>
+        <v>758.4698534843603</v>
       </c>
       <c r="X12" t="n">
-        <v>585.6281371148175</v>
+        <v>553.1822110111051</v>
       </c>
       <c r="Y12" t="n">
-        <v>380.3404946415623</v>
+        <v>553.1822110111051</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.1718748662749</v>
+        <v>354.0454308160793</v>
       </c>
       <c r="C13" t="n">
-        <v>164.1718748662749</v>
+        <v>185.1092478881723</v>
       </c>
       <c r="D13" t="n">
-        <v>164.1718748662749</v>
+        <v>185.1092478881723</v>
       </c>
       <c r="E13" t="n">
-        <v>16.2587812838818</v>
+        <v>185.1092478881723</v>
       </c>
       <c r="F13" t="n">
-        <v>16.2587812838818</v>
+        <v>185.1092478881723</v>
       </c>
       <c r="G13" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="H13" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="I13" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="J13" t="n">
-        <v>16.2587812838818</v>
+        <v>16.25878128388181</v>
       </c>
       <c r="K13" t="n">
-        <v>89.56556804894518</v>
+        <v>89.56556804894521</v>
       </c>
       <c r="L13" t="n">
-        <v>238.8994510678577</v>
+        <v>238.8994510678578</v>
       </c>
       <c r="M13" t="n">
         <v>406.740215650389</v>
@@ -5214,37 +5214,37 @@
         <v>576.0247184155553</v>
       </c>
       <c r="O13" t="n">
-        <v>716.3700606954424</v>
+        <v>716.3700606954425</v>
       </c>
       <c r="P13" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940903</v>
       </c>
       <c r="Q13" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940903</v>
       </c>
       <c r="R13" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940903</v>
       </c>
       <c r="S13" t="n">
-        <v>812.9390641940902</v>
+        <v>764.6207157625895</v>
       </c>
       <c r="T13" t="n">
-        <v>812.9390641940902</v>
+        <v>559.3330732893344</v>
       </c>
       <c r="U13" t="n">
-        <v>607.6514217208351</v>
+        <v>559.3330732893344</v>
       </c>
       <c r="V13" t="n">
-        <v>402.3637792475799</v>
+        <v>559.3330732893344</v>
       </c>
       <c r="W13" t="n">
-        <v>197.0761367743248</v>
+        <v>354.0454308160793</v>
       </c>
       <c r="X13" t="n">
-        <v>197.0761367743248</v>
+        <v>354.0454308160793</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.0761367743248</v>
+        <v>354.0454308160793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7725641525687</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7725641525687</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7725641525687</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7725641525687</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7725641525687</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G14" t="n">
-        <v>28.48492167931363</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H14" t="n">
         <v>16.2587812838818</v>
@@ -5281,10 +5281,10 @@
         <v>159.7199905735174</v>
       </c>
       <c r="K14" t="n">
-        <v>360.9224089615547</v>
+        <v>342.3859454008195</v>
       </c>
       <c r="L14" t="n">
-        <v>505.6839791917005</v>
+        <v>397.7129390245316</v>
       </c>
       <c r="M14" t="n">
         <v>598.9153574125689</v>
@@ -5302,28 +5302,28 @@
         <v>812.9390641940902</v>
       </c>
       <c r="R14" t="n">
-        <v>812.9390641940902</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="S14" t="n">
-        <v>644.347849099079</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="T14" t="n">
-        <v>439.0602066258239</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="U14" t="n">
-        <v>439.0602066258239</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="V14" t="n">
-        <v>439.0602066258239</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="W14" t="n">
-        <v>439.0602066258239</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="X14" t="n">
-        <v>439.0602066258239</v>
+        <v>426.8340662303921</v>
       </c>
       <c r="Y14" t="n">
-        <v>439.0602066258239</v>
+        <v>221.5464237571369</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175.4962362893373</v>
+        <v>400.2820625245659</v>
       </c>
       <c r="C15" t="n">
-        <v>175.4962362893373</v>
+        <v>400.2820625245659</v>
       </c>
       <c r="D15" t="n">
-        <v>175.4962362893373</v>
+        <v>400.2820625245659</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2587812838818</v>
+        <v>241.0446075191104</v>
       </c>
       <c r="F15" t="n">
-        <v>16.2587812838818</v>
+        <v>94.51004954599537</v>
       </c>
       <c r="G15" t="n">
         <v>16.2587812838818</v>
@@ -5357,22 +5357,22 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J15" t="n">
-        <v>16.2587812838818</v>
+        <v>108.0099150461124</v>
       </c>
       <c r="K15" t="n">
-        <v>37.87634126146366</v>
+        <v>309.2123334341497</v>
       </c>
       <c r="L15" t="n">
-        <v>239.078759649501</v>
+        <v>384.6023517517613</v>
       </c>
       <c r="M15" t="n">
-        <v>440.2811780375383</v>
+        <v>491.9358153832428</v>
       </c>
       <c r="N15" t="n">
-        <v>564.8640839864037</v>
+        <v>616.5187213321082</v>
       </c>
       <c r="O15" t="n">
-        <v>758.6352890230203</v>
+        <v>708.267945830343</v>
       </c>
       <c r="P15" t="n">
         <v>812.9390641940902</v>
@@ -5381,28 +5381,28 @@
         <v>812.9390641940902</v>
       </c>
       <c r="R15" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="S15" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="T15" t="n">
-        <v>614.7784833407885</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="U15" t="n">
-        <v>409.4908408675334</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="V15" t="n">
-        <v>204.2031983942783</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="W15" t="n">
-        <v>204.2031983942783</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="X15" t="n">
-        <v>175.4962362893373</v>
+        <v>568.4973995446339</v>
       </c>
       <c r="Y15" t="n">
-        <v>175.4962362893373</v>
+        <v>568.4973995446339</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.714259663613</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="C16" t="n">
-        <v>207.7780767357061</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="D16" t="n">
-        <v>207.7780767357061</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="E16" t="n">
-        <v>207.7780767357061</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="F16" t="n">
-        <v>207.7780767357061</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="G16" t="n">
-        <v>207.7780767357061</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H16" t="n">
-        <v>51.35741614018875</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I16" t="n">
-        <v>51.35741614018875</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J16" t="n">
         <v>16.2587812838818</v>
       </c>
       <c r="K16" t="n">
-        <v>89.56556804894529</v>
+        <v>89.56556804894518</v>
       </c>
       <c r="L16" t="n">
-        <v>238.8994510678578</v>
+        <v>238.8994510678577</v>
       </c>
       <c r="M16" t="n">
         <v>406.740215650389</v>
@@ -5457,31 +5457,31 @@
         <v>812.9390641940902</v>
       </c>
       <c r="Q16" t="n">
-        <v>812.9390641940902</v>
+        <v>796.0268024849864</v>
       </c>
       <c r="R16" t="n">
-        <v>812.9390641940902</v>
+        <v>796.0268024849864</v>
       </c>
       <c r="S16" t="n">
-        <v>812.9390641940902</v>
+        <v>590.7391600117313</v>
       </c>
       <c r="T16" t="n">
-        <v>812.9390641940902</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="U16" t="n">
-        <v>812.9390641940902</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="V16" t="n">
-        <v>763.6503669671079</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="W16" t="n">
-        <v>558.3627244938527</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="X16" t="n">
-        <v>558.3627244938527</v>
+        <v>180.1638750652211</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.3627244938527</v>
+        <v>180.1638750652211</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>833.4193861902731</v>
+        <v>1918.229708985542</v>
       </c>
       <c r="C17" t="n">
-        <v>464.4568692498615</v>
+        <v>1918.229708985542</v>
       </c>
       <c r="D17" t="n">
-        <v>464.4568692498615</v>
+        <v>1732.292600759459</v>
       </c>
       <c r="E17" t="n">
-        <v>464.4568692498615</v>
+        <v>1346.504348161215</v>
       </c>
       <c r="F17" t="n">
-        <v>53.47096446025395</v>
+        <v>935.5184433716075</v>
       </c>
       <c r="G17" t="n">
-        <v>53.47096446025395</v>
+        <v>517.8875490422932</v>
       </c>
       <c r="H17" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I17" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J17" t="n">
-        <v>196.9321737498895</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K17" t="n">
-        <v>532.6881422406536</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L17" t="n">
-        <v>1001.499738269312</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M17" t="n">
-        <v>1143.285110895299</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N17" t="n">
-        <v>1675.612333832883</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O17" t="n">
-        <v>2133.086197599338</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P17" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q17" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R17" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S17" t="n">
-        <v>2504.957007917686</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="T17" t="n">
-        <v>2287.779670928863</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="U17" t="n">
-        <v>2034.044518668754</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="V17" t="n">
-        <v>1983.624316491286</v>
+        <v>2308.369040961354</v>
       </c>
       <c r="W17" t="n">
-        <v>1983.624316491286</v>
+        <v>2308.369040961354</v>
       </c>
       <c r="X17" t="n">
-        <v>1610.158558230207</v>
+        <v>2308.369040961354</v>
       </c>
       <c r="Y17" t="n">
-        <v>1220.019226254395</v>
+        <v>1918.229708985542</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.9947271650331</v>
+        <v>979.9947271650334</v>
       </c>
       <c r="C18" t="n">
-        <v>805.5416978839061</v>
+        <v>805.5416978839064</v>
       </c>
       <c r="D18" t="n">
         <v>656.6072882226551</v>
@@ -5606,10 +5606,10 @@
         <v>1439.563679754537</v>
       </c>
       <c r="N18" t="n">
-        <v>2038.69553630352</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O18" t="n">
-        <v>2424.886493801824</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P18" t="n">
         <v>2479.190268972894</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.47096446025395</v>
+        <v>222.4071473881609</v>
       </c>
       <c r="C19" t="n">
         <v>53.47096446025395</v>
@@ -5697,28 +5697,28 @@
         <v>850.1512473704623</v>
       </c>
       <c r="R19" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S19" t="n">
-        <v>497.0332282644347</v>
+        <v>638.4653025630963</v>
       </c>
       <c r="T19" t="n">
-        <v>342.6364293334654</v>
+        <v>411.7951772223091</v>
       </c>
       <c r="U19" t="n">
-        <v>53.47096446025395</v>
+        <v>411.7951772223091</v>
       </c>
       <c r="V19" t="n">
-        <v>53.47096446025395</v>
+        <v>411.7951772223091</v>
       </c>
       <c r="W19" t="n">
-        <v>53.47096446025395</v>
+        <v>404.0556122184006</v>
       </c>
       <c r="X19" t="n">
-        <v>53.47096446025395</v>
+        <v>404.0556122184006</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.47096446025395</v>
+        <v>404.0556122184006</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1366.483946118871</v>
+        <v>1327.586613735639</v>
       </c>
       <c r="C20" t="n">
-        <v>997.5214291784589</v>
+        <v>1327.586613735639</v>
       </c>
       <c r="D20" t="n">
-        <v>997.5214291784589</v>
+        <v>969.3209151288884</v>
       </c>
       <c r="E20" t="n">
         <v>611.7331765802147</v>
@@ -5752,25 +5752,25 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J20" t="n">
-        <v>196.9321737498895</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K20" t="n">
-        <v>211.7841837952006</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L20" t="n">
-        <v>605.0353345165266</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M20" t="n">
-        <v>1143.285110895299</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N20" t="n">
-        <v>1675.612333832883</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O20" t="n">
-        <v>2133.086197599338</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P20" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q20" t="n">
         <v>2673.548223012697</v>
@@ -5779,25 +5779,25 @@
         <v>2639.431928304924</v>
       </c>
       <c r="S20" t="n">
-        <v>2470.840713209913</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="T20" t="n">
-        <v>2253.66337622109</v>
+        <v>2422.254591316101</v>
       </c>
       <c r="U20" t="n">
-        <v>1999.928223960982</v>
+        <v>2422.254591316101</v>
       </c>
       <c r="V20" t="n">
-        <v>1999.928223960982</v>
+        <v>2091.19170397253</v>
       </c>
       <c r="W20" t="n">
-        <v>1647.159568690867</v>
+        <v>2091.19170397253</v>
       </c>
       <c r="X20" t="n">
-        <v>1647.159568690867</v>
+        <v>1717.725945711451</v>
       </c>
       <c r="Y20" t="n">
-        <v>1366.483946118871</v>
+        <v>1327.586613735639</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.9947271650331</v>
+        <v>979.9947271650326</v>
       </c>
       <c r="C21" t="n">
-        <v>805.5416978839061</v>
+        <v>805.5416978839056</v>
       </c>
       <c r="D21" t="n">
-        <v>656.6072882226548</v>
+        <v>656.6072882226542</v>
       </c>
       <c r="E21" t="n">
-        <v>497.3698332171993</v>
+        <v>497.3698332171987</v>
       </c>
       <c r="F21" t="n">
-        <v>350.8352752440843</v>
+        <v>350.835275244084</v>
       </c>
       <c r="G21" t="n">
-        <v>213.1032867621172</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H21" t="n">
         <v>109.3808131512277</v>
@@ -5831,19 +5831,19 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J21" t="n">
-        <v>124.385690269016</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K21" t="n">
-        <v>407.8238348890507</v>
+        <v>336.9091090802886</v>
       </c>
       <c r="L21" t="n">
-        <v>850.3457950570868</v>
+        <v>779.4310692483248</v>
       </c>
       <c r="M21" t="n">
-        <v>1418.727271801068</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N21" t="n">
-        <v>2017.859128350051</v>
+        <v>1946.944402541289</v>
       </c>
       <c r="O21" t="n">
         <v>2109.608352848286</v>
@@ -5870,7 +5870,7 @@
         <v>1818.059219883789</v>
       </c>
       <c r="W21" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155587</v>
       </c>
       <c r="X21" t="n">
         <v>1355.970362950055</v>
@@ -5931,22 +5931,22 @@
         <v>850.1512473704623</v>
       </c>
       <c r="Q22" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="R22" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S22" t="n">
-        <v>480.1209665553309</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T22" t="n">
-        <v>253.4508412145438</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="U22" t="n">
-        <v>253.4508412145438</v>
+        <v>560.9857824972509</v>
       </c>
       <c r="V22" t="n">
-        <v>253.4508412145438</v>
+        <v>306.301294291364</v>
       </c>
       <c r="W22" t="n">
         <v>53.47096446025395</v>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1510.755388975164</v>
+        <v>1662.74665891877</v>
       </c>
       <c r="C23" t="n">
-        <v>1510.755388975164</v>
+        <v>1293.784141978358</v>
       </c>
       <c r="D23" t="n">
-        <v>1152.489690368414</v>
+        <v>935.5184433716075</v>
       </c>
       <c r="E23" t="n">
-        <v>794.8871255809611</v>
+        <v>935.5184433716075</v>
       </c>
       <c r="F23" t="n">
-        <v>794.8871255809611</v>
+        <v>935.5184433716075</v>
       </c>
       <c r="G23" t="n">
-        <v>377.2562312516467</v>
+        <v>517.8875490422932</v>
       </c>
       <c r="H23" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I23" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J23" t="n">
-        <v>196.9321737498895</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K23" t="n">
-        <v>532.6881422406536</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L23" t="n">
-        <v>1001.499738269312</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M23" t="n">
-        <v>1143.285110895299</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N23" t="n">
-        <v>1675.612333832883</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O23" t="n">
-        <v>2133.086197599338</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P23" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q23" t="n">
         <v>2673.548223012697</v>
@@ -6022,19 +6022,19 @@
         <v>2253.66337622109</v>
       </c>
       <c r="U23" t="n">
-        <v>2253.66337622109</v>
+        <v>1999.928223960982</v>
       </c>
       <c r="V23" t="n">
-        <v>2253.66337622109</v>
+        <v>1668.865336617411</v>
       </c>
       <c r="W23" t="n">
-        <v>1900.894720950976</v>
+        <v>1662.74665891877</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.894720950976</v>
+        <v>1662.74665891877</v>
       </c>
       <c r="Y23" t="n">
-        <v>1510.755388975164</v>
+        <v>1662.74665891877</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.9947271650326</v>
+        <v>979.9947271650334</v>
       </c>
       <c r="C24" t="n">
-        <v>805.5416978839056</v>
+        <v>805.5416978839064</v>
       </c>
       <c r="D24" t="n">
-        <v>656.6072882226542</v>
+        <v>656.6072882226551</v>
       </c>
       <c r="E24" t="n">
-        <v>497.3698332171987</v>
+        <v>497.3698332171997</v>
       </c>
       <c r="F24" t="n">
-        <v>350.835275244084</v>
+        <v>350.8352752440846</v>
       </c>
       <c r="G24" t="n">
         <v>213.1032867621175</v>
@@ -6068,46 +6068,46 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J24" t="n">
-        <v>145.2220982224846</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K24" t="n">
-        <v>385.0320806555131</v>
+        <v>75.0885244378358</v>
       </c>
       <c r="L24" t="n">
-        <v>460.4220989731247</v>
+        <v>460.4220989731251</v>
       </c>
       <c r="M24" t="n">
         <v>1028.803575717106</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.935432266089</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O24" t="n">
-        <v>2109.608352848286</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P24" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q24" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R24" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S24" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T24" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U24" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V24" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W24" t="n">
-        <v>1563.821863155587</v>
+        <v>1563.821863155588</v>
       </c>
       <c r="X24" t="n">
         <v>1355.970362950055</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="C25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="D25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="E25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="F25" t="n">
-        <v>53.47096446025395</v>
+        <v>185.3090050106663</v>
       </c>
       <c r="G25" t="n">
-        <v>53.47096446025395</v>
+        <v>185.3090050106663</v>
       </c>
       <c r="H25" t="n">
-        <v>53.47096446025395</v>
+        <v>185.3090050106663</v>
       </c>
       <c r="I25" t="n">
         <v>53.47096446025395</v>
@@ -6171,28 +6171,28 @@
         <v>850.1512473704623</v>
       </c>
       <c r="R25" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S25" t="n">
-        <v>534.825578006928</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T25" t="n">
-        <v>308.1554526661408</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="U25" t="n">
-        <v>308.1554526661408</v>
+        <v>560.9857824972509</v>
       </c>
       <c r="V25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="W25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="X25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.47096446025395</v>
+        <v>306.301294291364</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1225.852628328224</v>
+        <v>1656.207980515697</v>
       </c>
       <c r="C26" t="n">
-        <v>856.8901113878125</v>
+        <v>1656.207980515697</v>
       </c>
       <c r="D26" t="n">
-        <v>856.8901113878125</v>
+        <v>1656.207980515697</v>
       </c>
       <c r="E26" t="n">
-        <v>471.1018587895682</v>
+        <v>1270.419727917453</v>
       </c>
       <c r="F26" t="n">
-        <v>471.1018587895682</v>
+        <v>859.4338231278455</v>
       </c>
       <c r="G26" t="n">
-        <v>53.47096446025395</v>
+        <v>517.8875490422932</v>
       </c>
       <c r="H26" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I26" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J26" t="n">
-        <v>196.9321737498895</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K26" t="n">
-        <v>532.6881422406536</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L26" t="n">
-        <v>1001.499738269312</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M26" t="n">
-        <v>1539.749514648084</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N26" t="n">
-        <v>2072.076737585669</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O26" t="n">
-        <v>2152.558421902006</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P26" t="n">
-        <v>2505.327397687238</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q26" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R26" t="n">
-        <v>2639.431928304924</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="S26" t="n">
-        <v>2470.840713209913</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="T26" t="n">
-        <v>2253.66337622109</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="U26" t="n">
-        <v>1999.928223960982</v>
+        <v>2419.813070752589</v>
       </c>
       <c r="V26" t="n">
-        <v>1668.865336617411</v>
+        <v>2419.813070752589</v>
       </c>
       <c r="W26" t="n">
-        <v>1316.096681347297</v>
+        <v>2419.813070752589</v>
       </c>
       <c r="X26" t="n">
-        <v>1316.096681347297</v>
+        <v>2046.347312491509</v>
       </c>
       <c r="Y26" t="n">
-        <v>1225.852628328224</v>
+        <v>1656.207980515697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.9947271650334</v>
+        <v>979.9947271650335</v>
       </c>
       <c r="C27" t="n">
-        <v>805.5416978839064</v>
+        <v>805.5416978839065</v>
       </c>
       <c r="D27" t="n">
         <v>656.6072882226551</v>
       </c>
       <c r="E27" t="n">
-        <v>497.3698332171997</v>
+        <v>497.3698332171996</v>
       </c>
       <c r="F27" t="n">
-        <v>350.8352752440846</v>
+        <v>350.8352752440844</v>
       </c>
       <c r="G27" t="n">
-        <v>213.1032867621175</v>
+        <v>213.1032867621176</v>
       </c>
       <c r="H27" t="n">
-        <v>109.3808131512277</v>
+        <v>109.3808131512278</v>
       </c>
       <c r="I27" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J27" t="n">
-        <v>145.2220982224846</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K27" t="n">
-        <v>166.8396582000664</v>
+        <v>336.9091090802886</v>
       </c>
       <c r="L27" t="n">
-        <v>609.3616183681025</v>
+        <v>779.4310692483248</v>
       </c>
       <c r="M27" t="n">
-        <v>1028.803575717106</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N27" t="n">
-        <v>1627.93543226609</v>
+        <v>1946.944402541289</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.608352848287</v>
+        <v>2428.617323123487</v>
       </c>
       <c r="P27" t="n">
-        <v>2479.190268972895</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q27" t="n">
-        <v>2673.548223012698</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="R27" t="n">
         <v>2634.394200836497</v>
@@ -6350,7 +6350,7 @@
         <v>1355.970362950055</v>
       </c>
       <c r="Y27" t="n">
-        <v>1148.210064185101</v>
+        <v>1148.210064185102</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>203.5876038725897</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C28" t="n">
-        <v>203.5876038725897</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D28" t="n">
         <v>53.47096446025395</v>
@@ -6405,31 +6405,31 @@
         <v>850.1512473704623</v>
       </c>
       <c r="Q28" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="R28" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S28" t="n">
-        <v>621.5530408539926</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T28" t="n">
-        <v>394.8829155132054</v>
+        <v>683.9015593320411</v>
       </c>
       <c r="U28" t="n">
-        <v>203.5876038725897</v>
+        <v>683.9015593320411</v>
       </c>
       <c r="V28" t="n">
-        <v>203.5876038725897</v>
+        <v>683.9015593320411</v>
       </c>
       <c r="W28" t="n">
-        <v>203.5876038725897</v>
+        <v>683.9015593320411</v>
       </c>
       <c r="X28" t="n">
-        <v>203.5876038725897</v>
+        <v>455.9120084340237</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.5876038725897</v>
+        <v>235.1194292904937</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.6956935206265</v>
+        <v>948.8530517895565</v>
       </c>
       <c r="C29" t="n">
-        <v>611.7331765802147</v>
+        <v>579.8905348491447</v>
       </c>
       <c r="D29" t="n">
-        <v>611.7331765802147</v>
+        <v>579.8905348491447</v>
       </c>
       <c r="E29" t="n">
-        <v>611.7331765802147</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="F29" t="n">
-        <v>611.7331765802147</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="G29" t="n">
         <v>194.1022822509005</v>
@@ -6463,25 +6463,25 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J29" t="n">
-        <v>119.0484910868718</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K29" t="n">
-        <v>454.804459577636</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L29" t="n">
-        <v>923.616055606294</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M29" t="n">
-        <v>1461.865831985067</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N29" t="n">
-        <v>1994.193054922651</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O29" t="n">
-        <v>2451.666918689106</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P29" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q29" t="n">
         <v>2673.548223012697</v>
@@ -6493,22 +6493,22 @@
         <v>2470.840713209913</v>
       </c>
       <c r="T29" t="n">
-        <v>2253.66337622109</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="U29" t="n">
-        <v>1999.928223960982</v>
+        <v>2217.105560949805</v>
       </c>
       <c r="V29" t="n">
-        <v>1999.928223960982</v>
+        <v>2217.105560949805</v>
       </c>
       <c r="W29" t="n">
-        <v>1647.159568690867</v>
+        <v>1864.336905679691</v>
       </c>
       <c r="X29" t="n">
-        <v>1370.835025496438</v>
+        <v>1725.59222382949</v>
       </c>
       <c r="Y29" t="n">
-        <v>980.6956935206265</v>
+        <v>1335.452891853678</v>
       </c>
     </row>
     <row r="30">
@@ -6518,70 +6518,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.9947271650326</v>
+        <v>979.9947271650334</v>
       </c>
       <c r="C30" t="n">
-        <v>805.5416978839056</v>
+        <v>805.5416978839064</v>
       </c>
       <c r="D30" t="n">
-        <v>656.6072882226542</v>
+        <v>656.6072882226551</v>
       </c>
       <c r="E30" t="n">
-        <v>497.3698332171987</v>
+        <v>497.3698332171997</v>
       </c>
       <c r="F30" t="n">
-        <v>350.835275244084</v>
+        <v>350.8352752440846</v>
       </c>
       <c r="G30" t="n">
-        <v>213.103286762117</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3808131512274</v>
+        <v>109.3808131512277</v>
       </c>
       <c r="I30" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J30" t="n">
-        <v>145.2220982224846</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K30" t="n">
-        <v>166.8396582000664</v>
+        <v>336.9091090802886</v>
       </c>
       <c r="L30" t="n">
-        <v>609.3616183681025</v>
+        <v>779.4310692483248</v>
       </c>
       <c r="M30" t="n">
-        <v>1177.743095112084</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N30" t="n">
-        <v>1776.874951661067</v>
+        <v>1946.944402541289</v>
       </c>
       <c r="O30" t="n">
-        <v>2258.547872243264</v>
+        <v>2428.617323123487</v>
       </c>
       <c r="P30" t="n">
-        <v>2628.129788367872</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="Q30" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R30" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S30" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T30" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U30" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V30" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W30" t="n">
-        <v>1563.821863155587</v>
+        <v>1563.821863155588</v>
       </c>
       <c r="X30" t="n">
         <v>1355.970362950055</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="C31" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="D31" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="E31" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="F31" t="n">
         <v>53.47096446025395</v>
@@ -6642,31 +6642,31 @@
         <v>850.1512473704623</v>
       </c>
       <c r="Q31" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="R31" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S31" t="n">
-        <v>480.1209665553309</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T31" t="n">
-        <v>253.4508412145438</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="U31" t="n">
-        <v>53.47096446025395</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="V31" t="n">
-        <v>53.47096446025395</v>
+        <v>595.4667591645755</v>
       </c>
       <c r="W31" t="n">
-        <v>53.47096446025395</v>
+        <v>576.2635564385748</v>
       </c>
       <c r="X31" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1316.381791261062</v>
+        <v>1192.280405368113</v>
       </c>
       <c r="C32" t="n">
-        <v>947.4192743206502</v>
+        <v>823.3178884277015</v>
       </c>
       <c r="D32" t="n">
-        <v>589.1535757138997</v>
+        <v>465.052189820951</v>
       </c>
       <c r="E32" t="n">
-        <v>589.1535757138997</v>
+        <v>464.4568692498615</v>
       </c>
       <c r="F32" t="n">
-        <v>589.1535757138997</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="G32" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H32" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I32" t="n">
         <v>53.47096446025395</v>
@@ -6709,13 +6709,13 @@
         <v>1001.499738269312</v>
       </c>
       <c r="M32" t="n">
-        <v>1143.285110895299</v>
+        <v>1539.749514648084</v>
       </c>
       <c r="N32" t="n">
-        <v>1675.612333832883</v>
+        <v>2072.076737585669</v>
       </c>
       <c r="O32" t="n">
-        <v>2133.086197599338</v>
+        <v>2451.666918689106</v>
       </c>
       <c r="P32" t="n">
         <v>2485.85517338457</v>
@@ -6727,25 +6727,25 @@
         <v>2673.548223012697</v>
       </c>
       <c r="S32" t="n">
-        <v>2504.957007917686</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="T32" t="n">
-        <v>2287.779670928863</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="U32" t="n">
-        <v>2034.044518668754</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="V32" t="n">
-        <v>1702.981631325184</v>
+        <v>2342.485335669126</v>
       </c>
       <c r="W32" t="n">
-        <v>1702.981631325184</v>
+        <v>2342.485335669126</v>
       </c>
       <c r="X32" t="n">
-        <v>1702.981631325184</v>
+        <v>1969.019577408047</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.981631325184</v>
+        <v>1578.880245432235</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.9947271650326</v>
+        <v>979.9947271650334</v>
       </c>
       <c r="C33" t="n">
-        <v>805.5416978839056</v>
+        <v>805.5416978839064</v>
       </c>
       <c r="D33" t="n">
-        <v>656.6072882226542</v>
+        <v>656.6072882226551</v>
       </c>
       <c r="E33" t="n">
-        <v>497.3698332171987</v>
+        <v>497.3698332171997</v>
       </c>
       <c r="F33" t="n">
-        <v>350.835275244084</v>
+        <v>350.8352752440846</v>
       </c>
       <c r="G33" t="n">
         <v>213.1032867621175</v>
@@ -6779,46 +6779,46 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J33" t="n">
-        <v>145.2220982224846</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K33" t="n">
-        <v>428.6602428425192</v>
+        <v>336.9091090802886</v>
       </c>
       <c r="L33" t="n">
-        <v>871.1822030105553</v>
+        <v>779.4310692483248</v>
       </c>
       <c r="M33" t="n">
-        <v>1439.563679754537</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N33" t="n">
-        <v>1627.935432266089</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.608352848286</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P33" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q33" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R33" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S33" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T33" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U33" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V33" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W33" t="n">
-        <v>1563.821863155587</v>
+        <v>1563.821863155588</v>
       </c>
       <c r="X33" t="n">
         <v>1355.970362950055</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>203.5876038725897</v>
+        <v>517.2101884684644</v>
       </c>
       <c r="C34" t="n">
-        <v>203.5876038725897</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="D34" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="E34" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="F34" t="n">
         <v>53.47096446025395</v>
@@ -6879,31 +6879,31 @@
         <v>850.1512473704623</v>
       </c>
       <c r="Q34" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="R34" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S34" t="n">
-        <v>480.1209665553309</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T34" t="n">
-        <v>253.4508412145438</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="U34" t="n">
-        <v>253.4508412145438</v>
+        <v>560.9857824972509</v>
       </c>
       <c r="V34" t="n">
-        <v>253.4508412145438</v>
+        <v>517.2101884684644</v>
       </c>
       <c r="W34" t="n">
-        <v>253.4508412145438</v>
+        <v>517.2101884684644</v>
       </c>
       <c r="X34" t="n">
-        <v>253.4508412145438</v>
+        <v>517.2101884684644</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.5876038725897</v>
+        <v>517.2101884684644</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1208.510820454856</v>
+        <v>995.8001713702556</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.510820454856</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="D35" t="n">
-        <v>850.2451218481058</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="E35" t="n">
-        <v>464.4568692498615</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="F35" t="n">
-        <v>53.47096446025395</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="G35" t="n">
         <v>53.47096446025395</v>
@@ -6937,25 +6937,25 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9321737498895</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K35" t="n">
-        <v>532.6881422406536</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L35" t="n">
-        <v>1001.499738269312</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M35" t="n">
-        <v>1143.285110895299</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N35" t="n">
-        <v>1675.612333832883</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O35" t="n">
-        <v>2133.086197599338</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P35" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q35" t="n">
         <v>2673.548223012697</v>
@@ -6964,25 +6964,25 @@
         <v>2673.548223012697</v>
       </c>
       <c r="S35" t="n">
-        <v>2504.957007917686</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="T35" t="n">
-        <v>2504.957007917686</v>
+        <v>2456.370886023874</v>
       </c>
       <c r="U35" t="n">
-        <v>2251.221855657578</v>
+        <v>2456.370886023874</v>
       </c>
       <c r="V35" t="n">
-        <v>1920.158968314007</v>
+        <v>2125.307998680303</v>
       </c>
       <c r="W35" t="n">
-        <v>1920.158968314007</v>
+        <v>1772.539343410189</v>
       </c>
       <c r="X35" t="n">
-        <v>1546.693210052927</v>
+        <v>1772.539343410189</v>
       </c>
       <c r="Y35" t="n">
-        <v>1208.510820454856</v>
+        <v>1382.400011434377</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.9947271650331</v>
+        <v>979.9947271650326</v>
       </c>
       <c r="C36" t="n">
-        <v>805.5416978839061</v>
+        <v>805.5416978839056</v>
       </c>
       <c r="D36" t="n">
-        <v>656.6072882226548</v>
+        <v>656.6072882226542</v>
       </c>
       <c r="E36" t="n">
-        <v>497.3698332171993</v>
+        <v>497.3698332171987</v>
       </c>
       <c r="F36" t="n">
-        <v>350.8352752440843</v>
+        <v>350.835275244084</v>
       </c>
       <c r="G36" t="n">
-        <v>213.1032867621172</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H36" t="n">
         <v>109.3808131512277</v>
@@ -7016,25 +7016,25 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J36" t="n">
-        <v>145.2220982224846</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K36" t="n">
-        <v>166.8396582000664</v>
+        <v>336.9091090802886</v>
       </c>
       <c r="L36" t="n">
-        <v>460.4220989731247</v>
+        <v>779.4310692483248</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.803575717106</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N36" t="n">
-        <v>1627.935432266089</v>
+        <v>1946.944402541289</v>
       </c>
       <c r="O36" t="n">
-        <v>2109.608352848286</v>
+        <v>2428.617323123487</v>
       </c>
       <c r="P36" t="n">
-        <v>2479.190268972894</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q36" t="n">
         <v>2673.548223012697</v>
@@ -7055,7 +7055,7 @@
         <v>1818.059219883789</v>
       </c>
       <c r="W36" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155587</v>
       </c>
       <c r="X36" t="n">
         <v>1355.970362950055</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>201.3840580426471</v>
+        <v>547.6782745879688</v>
       </c>
       <c r="C37" t="n">
-        <v>201.3840580426471</v>
+        <v>378.7420916600618</v>
       </c>
       <c r="D37" t="n">
-        <v>201.3840580426471</v>
+        <v>378.7420916600618</v>
       </c>
       <c r="E37" t="n">
-        <v>53.47096446025395</v>
+        <v>378.7420916600618</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47096446025395</v>
+        <v>378.7420916600618</v>
       </c>
       <c r="G37" t="n">
-        <v>53.47096446025395</v>
+        <v>209.8916250557713</v>
       </c>
       <c r="H37" t="n">
         <v>53.47096446025395</v>
@@ -7116,31 +7116,31 @@
         <v>850.1512473704623</v>
       </c>
       <c r="Q37" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="R37" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S37" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T37" t="n">
-        <v>465.1367860219098</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="U37" t="n">
-        <v>422.1766371861772</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="V37" t="n">
-        <v>422.1766371861772</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="W37" t="n">
-        <v>422.1766371861772</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="X37" t="n">
-        <v>422.1766371861772</v>
+        <v>729.3267394182085</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.3840580426471</v>
+        <v>729.3267394182085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>573.473804015136</v>
+        <v>2035.65475125198</v>
       </c>
       <c r="C38" t="n">
-        <v>573.473804015136</v>
+        <v>1666.692234311568</v>
       </c>
       <c r="D38" t="n">
-        <v>464.4568692498615</v>
+        <v>1308.426535704818</v>
       </c>
       <c r="E38" t="n">
-        <v>464.4568692498615</v>
+        <v>1308.426535704818</v>
       </c>
       <c r="F38" t="n">
-        <v>53.47096446025395</v>
+        <v>935.5184433716075</v>
       </c>
       <c r="G38" t="n">
-        <v>53.47096446025395</v>
+        <v>517.8875490422932</v>
       </c>
       <c r="H38" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I38" t="n">
         <v>53.47096446025395</v>
@@ -7177,49 +7177,49 @@
         <v>53.47096446025395</v>
       </c>
       <c r="K38" t="n">
-        <v>389.2269329510181</v>
+        <v>389.2269329510182</v>
       </c>
       <c r="L38" t="n">
         <v>858.0385289796761</v>
       </c>
       <c r="M38" t="n">
-        <v>1143.285110895299</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N38" t="n">
-        <v>1675.612333832883</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O38" t="n">
-        <v>2133.086197599338</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P38" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="Q38" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R38" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="S38" t="n">
-        <v>2504.957007917686</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="T38" t="n">
-        <v>2287.779670928863</v>
+        <v>2422.254591316102</v>
       </c>
       <c r="U38" t="n">
-        <v>2034.044518668754</v>
+        <v>2422.254591316102</v>
       </c>
       <c r="V38" t="n">
-        <v>1702.981631325184</v>
+        <v>2422.254591316102</v>
       </c>
       <c r="W38" t="n">
-        <v>1350.212976055069</v>
+        <v>2422.254591316102</v>
       </c>
       <c r="X38" t="n">
-        <v>1350.212976055069</v>
+        <v>2422.254591316102</v>
       </c>
       <c r="Y38" t="n">
-        <v>960.0736440792577</v>
+        <v>2422.254591316102</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.9947271650331</v>
+        <v>979.9947271650334</v>
       </c>
       <c r="C39" t="n">
-        <v>805.5416978839061</v>
+        <v>805.5416978839064</v>
       </c>
       <c r="D39" t="n">
-        <v>656.6072882226548</v>
+        <v>656.6072882226551</v>
       </c>
       <c r="E39" t="n">
-        <v>497.3698332171993</v>
+        <v>497.3698332171997</v>
       </c>
       <c r="F39" t="n">
-        <v>350.8352752440843</v>
+        <v>350.8352752440846</v>
       </c>
       <c r="G39" t="n">
-        <v>213.1032867621172</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3808131512273</v>
+        <v>109.3808131512277</v>
       </c>
       <c r="I39" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J39" t="n">
-        <v>53.47096446025395</v>
+        <v>101.5939360354789</v>
       </c>
       <c r="K39" t="n">
-        <v>75.0885244378358</v>
+        <v>385.0320806555136</v>
       </c>
       <c r="L39" t="n">
-        <v>460.4220989731247</v>
+        <v>460.4220989731251</v>
       </c>
       <c r="M39" t="n">
         <v>1028.803575717106</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.935432266089</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O39" t="n">
-        <v>2109.608352848286</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P39" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q39" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R39" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S39" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T39" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U39" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V39" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W39" t="n">
         <v>1563.821863155588</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.47096446025395</v>
+        <v>595.4667591645755</v>
       </c>
       <c r="C40" t="n">
-        <v>53.47096446025395</v>
+        <v>498.3906449528931</v>
       </c>
       <c r="D40" t="n">
-        <v>53.47096446025395</v>
+        <v>348.2740055405574</v>
       </c>
       <c r="E40" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="F40" t="n">
         <v>53.47096446025395</v>
@@ -7353,31 +7353,31 @@
         <v>850.1512473704623</v>
       </c>
       <c r="Q40" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="R40" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="S40" t="n">
-        <v>691.806911362697</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="T40" t="n">
-        <v>465.1367860219098</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="U40" t="n">
-        <v>175.9713211486983</v>
+        <v>850.1512473704623</v>
       </c>
       <c r="V40" t="n">
-        <v>175.9713211486983</v>
+        <v>595.4667591645755</v>
       </c>
       <c r="W40" t="n">
-        <v>175.9713211486983</v>
+        <v>595.4667591645755</v>
       </c>
       <c r="X40" t="n">
-        <v>175.9713211486983</v>
+        <v>595.4667591645755</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.9713211486983</v>
+        <v>595.4667591645755</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>426.8340662303921</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="C41" t="n">
         <v>426.8340662303921</v>
@@ -7396,13 +7396,13 @@
         <v>426.8340662303921</v>
       </c>
       <c r="E41" t="n">
-        <v>426.8340662303921</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="F41" t="n">
-        <v>426.8340662303921</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="G41" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H41" t="n">
         <v>16.2587812838818</v>
@@ -7417,46 +7417,46 @@
         <v>174.5720006188284</v>
       </c>
       <c r="L41" t="n">
-        <v>375.7744190068657</v>
+        <v>229.8989942425405</v>
       </c>
       <c r="M41" t="n">
-        <v>576.9768373949031</v>
+        <v>323.1303724634089</v>
       </c>
       <c r="N41" t="n">
-        <v>698.269125182289</v>
+        <v>422.4841402331289</v>
       </c>
       <c r="O41" t="n">
-        <v>778.750809498626</v>
+        <v>591.057759870499</v>
       </c>
       <c r="P41" t="n">
-        <v>812.9390641940902</v>
+        <v>625.2460145659632</v>
       </c>
       <c r="Q41" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R41" t="n">
-        <v>812.9390641940902</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="S41" t="n">
-        <v>644.347849099079</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="T41" t="n">
-        <v>644.347849099079</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="U41" t="n">
         <v>632.1217087036472</v>
       </c>
       <c r="V41" t="n">
-        <v>426.8340662303921</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="W41" t="n">
-        <v>426.8340662303921</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="X41" t="n">
-        <v>426.8340662303921</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="Y41" t="n">
-        <v>426.8340662303921</v>
+        <v>632.1217087036472</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>328.443799046976</v>
+        <v>204.2031983942783</v>
       </c>
       <c r="C42" t="n">
-        <v>153.9907697658489</v>
+        <v>204.2031983942783</v>
       </c>
       <c r="D42" t="n">
-        <v>153.9907697658489</v>
+        <v>55.26878873302701</v>
       </c>
       <c r="E42" t="n">
-        <v>153.9907697658489</v>
+        <v>55.26878873302701</v>
       </c>
       <c r="F42" t="n">
-        <v>153.9907697658489</v>
+        <v>55.26878873302701</v>
       </c>
       <c r="G42" t="n">
-        <v>16.2587812838818</v>
+        <v>55.26878873302701</v>
       </c>
       <c r="H42" t="n">
         <v>16.2587812838818</v>
@@ -7499,16 +7499,16 @@
         <v>113.2663595790752</v>
       </c>
       <c r="M42" t="n">
-        <v>220.5998232105567</v>
+        <v>314.4687779671125</v>
       </c>
       <c r="N42" t="n">
-        <v>421.802241598594</v>
+        <v>515.6711963551498</v>
       </c>
       <c r="O42" t="n">
-        <v>513.5514660968289</v>
+        <v>607.4204208533847</v>
       </c>
       <c r="P42" t="n">
-        <v>714.7538844848663</v>
+        <v>808.6228392414221</v>
       </c>
       <c r="Q42" t="n">
         <v>812.9390641940902</v>
@@ -7526,16 +7526,16 @@
         <v>614.7784833407885</v>
       </c>
       <c r="V42" t="n">
-        <v>533.7314415202311</v>
+        <v>409.4908408675334</v>
       </c>
       <c r="W42" t="n">
-        <v>328.443799046976</v>
+        <v>204.2031983942783</v>
       </c>
       <c r="X42" t="n">
-        <v>328.443799046976</v>
+        <v>204.2031983942783</v>
       </c>
       <c r="Y42" t="n">
-        <v>328.443799046976</v>
+        <v>204.2031983942783</v>
       </c>
     </row>
     <row r="43">
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>658.668939626361</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="C43" t="n">
-        <v>489.7327566984541</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="D43" t="n">
-        <v>339.6161172861183</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="E43" t="n">
-        <v>339.6161172861183</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="F43" t="n">
-        <v>339.6161172861183</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="G43" t="n">
-        <v>339.6161172861183</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="H43" t="n">
-        <v>183.195456690601</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I43" t="n">
-        <v>51.35741614018868</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J43" t="n">
-        <v>16.25878128388173</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="K43" t="n">
-        <v>89.56556804894512</v>
+        <v>89.56556804894518</v>
       </c>
       <c r="L43" t="n">
         <v>238.8994510678577</v>
       </c>
       <c r="M43" t="n">
-        <v>406.7402156503889</v>
+        <v>406.740215650389</v>
       </c>
       <c r="N43" t="n">
-        <v>576.0247184155552</v>
+        <v>576.0247184155553</v>
       </c>
       <c r="O43" t="n">
         <v>716.3700606954424</v>
@@ -7590,31 +7590,31 @@
         <v>812.9390641940902</v>
       </c>
       <c r="Q43" t="n">
-        <v>812.9390641940902</v>
+        <v>796.0268024849864</v>
       </c>
       <c r="R43" t="n">
-        <v>812.9390641940902</v>
+        <v>796.0268024849864</v>
       </c>
       <c r="S43" t="n">
-        <v>812.9390641940902</v>
+        <v>788.5423692991645</v>
       </c>
       <c r="T43" t="n">
-        <v>812.9390641940902</v>
+        <v>788.5423692991645</v>
       </c>
       <c r="U43" t="n">
-        <v>812.9390641940902</v>
+        <v>583.2547268259094</v>
       </c>
       <c r="V43" t="n">
-        <v>812.9390641940902</v>
+        <v>583.2547268259094</v>
       </c>
       <c r="W43" t="n">
-        <v>658.668939626361</v>
+        <v>377.9670843526543</v>
       </c>
       <c r="X43" t="n">
-        <v>658.668939626361</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="Y43" t="n">
-        <v>658.668939626361</v>
+        <v>172.6794418793991</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>812.9390641940902</v>
+        <v>402.3637792475799</v>
       </c>
       <c r="C44" t="n">
-        <v>607.6514217208351</v>
+        <v>402.3637792475799</v>
       </c>
       <c r="D44" t="n">
-        <v>607.6514217208351</v>
+        <v>402.3637792475799</v>
       </c>
       <c r="E44" t="n">
-        <v>607.6514217208351</v>
+        <v>402.3637792475799</v>
       </c>
       <c r="F44" t="n">
-        <v>402.3637792475799</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="G44" t="n">
-        <v>197.0761367743248</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H44" t="n">
-        <v>156.8900990745283</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I44" t="n">
         <v>16.2587812838818</v>
       </c>
       <c r="J44" t="n">
-        <v>16.2587812838818</v>
+        <v>159.7199905735174</v>
       </c>
       <c r="K44" t="n">
-        <v>141.9432018681611</v>
+        <v>174.5720006188284</v>
       </c>
       <c r="L44" t="n">
-        <v>197.2701954918732</v>
+        <v>229.8989942425405</v>
       </c>
       <c r="M44" t="n">
-        <v>290.5015737127416</v>
+        <v>323.1303724634089</v>
       </c>
       <c r="N44" t="n">
-        <v>389.8553414824617</v>
+        <v>422.4841402331289</v>
       </c>
       <c r="O44" t="n">
-        <v>591.057759870499</v>
+        <v>502.9658245494659</v>
       </c>
       <c r="P44" t="n">
         <v>625.2460145659632</v>
@@ -7690,10 +7690,10 @@
         <v>812.9390641940902</v>
       </c>
       <c r="X44" t="n">
-        <v>812.9390641940902</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="Y44" t="n">
-        <v>812.9390641940902</v>
+        <v>402.3637792475799</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>234.1484422275119</v>
+        <v>208.34537051105</v>
       </c>
       <c r="C45" t="n">
-        <v>234.1484422275119</v>
+        <v>208.34537051105</v>
       </c>
       <c r="D45" t="n">
-        <v>234.1484422275119</v>
+        <v>208.34537051105</v>
       </c>
       <c r="E45" t="n">
-        <v>234.1484422275119</v>
+        <v>175.8911035857454</v>
       </c>
       <c r="F45" t="n">
-        <v>234.1484422275119</v>
+        <v>175.8911035857454</v>
       </c>
       <c r="G45" t="n">
-        <v>119.9812548947716</v>
+        <v>175.8911035857454</v>
       </c>
       <c r="H45" t="n">
-        <v>16.2587812838818</v>
+        <v>72.16862997485556</v>
       </c>
       <c r="I45" t="n">
         <v>16.2587812838818</v>
@@ -7733,46 +7733,46 @@
         <v>129.6274750236943</v>
       </c>
       <c r="L45" t="n">
-        <v>330.8298934117316</v>
+        <v>205.0174933413058</v>
       </c>
       <c r="M45" t="n">
-        <v>438.1633570432132</v>
+        <v>312.3509569727873</v>
       </c>
       <c r="N45" t="n">
-        <v>639.3657754312505</v>
+        <v>436.9338629216526</v>
       </c>
       <c r="O45" t="n">
-        <v>731.1149999294854</v>
+        <v>564.2773349832171</v>
       </c>
       <c r="P45" t="n">
-        <v>785.4187751005553</v>
+        <v>618.581110154287</v>
       </c>
       <c r="Q45" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R45" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="S45" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="T45" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="U45" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="V45" t="n">
-        <v>607.6514217208351</v>
+        <v>413.6330129843051</v>
       </c>
       <c r="W45" t="n">
-        <v>402.3637792475799</v>
+        <v>208.34537051105</v>
       </c>
       <c r="X45" t="n">
-        <v>402.3637792475799</v>
+        <v>208.34537051105</v>
       </c>
       <c r="Y45" t="n">
-        <v>402.3637792475799</v>
+        <v>208.34537051105</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>489.7327566984542</v>
+        <v>197.0761367743249</v>
       </c>
       <c r="C46" t="n">
-        <v>489.7327566984542</v>
+        <v>197.0761367743249</v>
       </c>
       <c r="D46" t="n">
-        <v>339.6161172861184</v>
+        <v>197.0761367743249</v>
       </c>
       <c r="E46" t="n">
-        <v>339.6161172861184</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="F46" t="n">
-        <v>339.6161172861184</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="G46" t="n">
-        <v>339.6161172861184</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="H46" t="n">
-        <v>183.195456690601</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I46" t="n">
-        <v>51.35741614018875</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J46" t="n">
         <v>16.2587812838818</v>
       </c>
       <c r="K46" t="n">
-        <v>89.56556804894518</v>
+        <v>89.5655680489452</v>
       </c>
       <c r="L46" t="n">
         <v>238.8994510678577</v>
@@ -7821,37 +7821,37 @@
         <v>576.0247184155553</v>
       </c>
       <c r="O46" t="n">
-        <v>716.3700606954424</v>
+        <v>716.3700606954425</v>
       </c>
       <c r="P46" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940903</v>
       </c>
       <c r="Q46" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940903</v>
       </c>
       <c r="R46" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940903</v>
       </c>
       <c r="S46" t="n">
-        <v>812.9390641940902</v>
+        <v>607.6514217208352</v>
       </c>
       <c r="T46" t="n">
-        <v>695.0203991717093</v>
+        <v>402.3637792475801</v>
       </c>
       <c r="U46" t="n">
-        <v>695.0203991717093</v>
+        <v>402.3637792475801</v>
       </c>
       <c r="V46" t="n">
-        <v>695.0203991717093</v>
+        <v>402.3637792475801</v>
       </c>
       <c r="W46" t="n">
-        <v>489.7327566984542</v>
+        <v>402.3637792475801</v>
       </c>
       <c r="X46" t="n">
-        <v>489.7327566984542</v>
+        <v>402.3637792475801</v>
       </c>
       <c r="Y46" t="n">
-        <v>489.7327566984542</v>
+        <v>197.0761367743249</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>88.98175284952859</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>102.8774248669872</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.4193186424459</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>127.0832323943695</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>49.48716371512137</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.39344690825462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>99.17694920123634</v>
       </c>
       <c r="P12" t="n">
         <v>148.3824678959267</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>188.2327356997235</v>
+        <v>169.5090351333243</v>
       </c>
       <c r="L14" t="n">
-        <v>90.33795616811494</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>109.0616567345141</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>181.3988468792479</v>
       </c>
       <c r="L15" t="n">
-        <v>127.0832323943695</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>94.81712601672302</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>103.0525055943249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>50.8761042350275</v>
       </c>
       <c r="Q15" t="n">
         <v>13.75612203907819</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830049</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>49.04443879304961</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,10 +9181,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037828</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614876</v>
       </c>
       <c r="O18" t="n">
-        <v>297.4158919192619</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830049</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>341.3375324218323</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9418,10 +9418,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037828</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>105.0441586197335</v>
+        <v>33.41312244926681</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>71.63103617046661</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830049</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>49.04443879304961</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,10 +9655,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037828</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926681</v>
       </c>
       <c r="K24" t="n">
-        <v>220.3963863186331</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>313.0742992097755</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830049</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9889,13 +9889,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037828</v>
       </c>
       <c r="Q26" t="n">
-        <v>192.6460772228667</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926681</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>315.2611047651741</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>192.5526512304452</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>13.75612203907819</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>90.42622864377307</v>
+        <v>24.18630275830049</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10129,10 +10129,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>255.8288649037828</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926681</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>192.5526512304456</v>
       </c>
       <c r="Q30" t="n">
-        <v>59.63332875102272</v>
+        <v>13.75612203907819</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,16 +10357,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>49.04443879304961</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>302.1297947344448</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926681</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>64.43317834614876</v>
+        <v>157.1110912372911</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830049</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>49.04443879304961</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,10 +10603,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037828</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926681</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>220.396386318633</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>192.5526512304452</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>13.75612203907819</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>193.9547512068228</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,10 +10840,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037833</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159458</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>33.41312244926681</v>
+        <v>82.02218464646374</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>313.0742992097751</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11065,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>147.3489139033588</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>109.0616567345141</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>22.16012122996555</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>88.98175284952839</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>94.81712601672302</v>
       </c>
       <c r="N42" t="n">
         <v>77.39344690825456</v>
@@ -11159,7 +11159,7 @@
         <v>148.3824678959267</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.9330712403145</v>
+        <v>18.11594522359143</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>111.9519298373417</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>121.9401354259599</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>88.98175284952838</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,22 +11381,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>127.0832323943695</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>77.39344690825456</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>35.95378541750458</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.55439385072958</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>179.499075614958</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>178.6956040237392</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>166.905302944061</v>
+        <v>21.67125276921743</v>
       </c>
       <c r="T11" t="n">
         <v>215.005563618935</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1978007375074</v>
+        <v>47.96303468898478</v>
       </c>
       <c r="V11" t="n">
-        <v>124.5174924216124</v>
+        <v>124.5174924216123</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>329.9469233556704</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.003172607531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3546685971475</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>102.6852488747809</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>55.35075020406402</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S12" t="n">
         <v>153.3157426947255</v>
@@ -23393,7 +23393,7 @@
         <v>196.1789750447687</v>
       </c>
       <c r="U12" t="n">
-        <v>39.6009904002193</v>
+        <v>171.9518076516273</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>2.538219154954874</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.447929728781816</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.2567608929679</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>154.8564539895622</v>
@@ -23466,19 +23466,19 @@
         <v>140.017753555675</v>
       </c>
       <c r="S13" t="n">
-        <v>209.5690853592923</v>
+        <v>161.7339204121066</v>
       </c>
       <c r="T13" t="n">
-        <v>224.4034240873793</v>
+        <v>21.16865803885668</v>
       </c>
       <c r="U13" t="n">
-        <v>83.0390441759568</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V13" t="n">
-        <v>48.90287727530546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.28823228806846</v>
+        <v>83.2882322880684</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.499075614958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>162.038125722485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>210.2198193374986</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H14" t="n">
-        <v>308.4435351320013</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I14" t="n">
         <v>139.22500461274</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.77079757041247</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U14" t="n">
         <v>251.1978007375074</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>188.1675873991641</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>183.003172607531</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.3546685971475</v>
+        <v>58.88591301765503</v>
       </c>
       <c r="H15" t="n">
         <v>102.6852488747809</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>153.3157426947255</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.1789750447687</v>
       </c>
       <c r="U15" t="n">
-        <v>22.64156020573759</v>
+        <v>225.8763262542601</v>
       </c>
       <c r="V15" t="n">
-        <v>29.56582110090272</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>177.3530927195859</v>
+        <v>2.53821915495493</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1619619382476</v>
+        <v>4.895919094721734</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.8564539895622</v>
       </c>
       <c r="I16" t="n">
         <v>130.5196601449082</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.74764850774388</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>140.017753555675</v>
       </c>
       <c r="S16" t="n">
-        <v>209.5690853592923</v>
+        <v>6.334319310769786</v>
       </c>
       <c r="T16" t="n">
-        <v>224.4034240873793</v>
+        <v>21.16865803885673</v>
       </c>
       <c r="U16" t="n">
         <v>286.2738102244793</v>
       </c>
       <c r="V16" t="n">
-        <v>203.3418330691155</v>
+        <v>48.90287727530546</v>
       </c>
       <c r="W16" t="n">
-        <v>83.28823228806846</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>170.6053044768613</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V17" t="n">
-        <v>277.8362583144417</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,22 +23937,22 @@
         <v>16.74313909201274</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>71.55059314571969</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>278.8608289827216</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>27.91850890907489</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>108.3690723097767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>209.5690853592923</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>88.54292034984408</v>
+        <v>36.22097180379208</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.90383093268372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>343.1834777957584</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>25.63868163504048</v>
       </c>
       <c r="G25" t="n">
         <v>167.1619619382476</v>
@@ -24384,7 +24384,7 @@
         <v>154.8564539895622</v>
       </c>
       <c r="I25" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>34.74764850774388</v>
@@ -24411,16 +24411,16 @@
         <v>16.74313909201274</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S25" t="n">
-        <v>37.4144262450684</v>
+        <v>209.5690853592923</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>75.32377404132444</v>
       </c>
       <c r="H26" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>33.77513176069502</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.8963261671719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R28" t="n">
         <v>140.017753555675</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>209.5690853592923</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>59.81623292934225</v>
       </c>
       <c r="U28" t="n">
-        <v>96.89145170026981</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H29" t="n">
         <v>320.5474141234789</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>96.16980291598412</v>
+        <v>232.3738656467703</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.1619619382476</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>209.5690853592923</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U31" t="n">
-        <v>88.29373223773243</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>267.5118276378503</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.3410027068832</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>22.35380485765182</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H32" t="n">
         <v>320.5474141234789</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>33.77513176069502</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.1619619382476</v>
@@ -25119,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>209.5690853592923</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>208.7998052353294</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.2200483835603</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>252.6976080578385</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.5474141234789</v>
@@ -25204,25 +25204,25 @@
         <v>33.77513176069502</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T35" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>51.43737295396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154.8564539895622</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>130.5196601449082</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S37" t="n">
         <v>209.5690853592923</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U37" t="n">
-        <v>243.7432628771041</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>106.0933925163059</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>246.7562762030612</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>37.69703433183332</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.55662706037742</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>71.14146802906231</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.1619619382476</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.74313909201274</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>140.017753555675</v>
       </c>
       <c r="S40" t="n">
         <v>209.5690853592923</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>162.038125722485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>178.6956040237392</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>210.2198193374986</v>
       </c>
       <c r="H41" t="n">
-        <v>117.3126480749563</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I41" t="n">
         <v>139.22500461274</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T41" t="n">
-        <v>215.005563618935</v>
+        <v>69.77151344409154</v>
       </c>
       <c r="U41" t="n">
-        <v>239.0939217460299</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V41" t="n">
-        <v>124.5174924216124</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25709,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H42" t="n">
-        <v>102.6852488747809</v>
+        <v>64.06534150012716</v>
       </c>
       <c r="I42" t="n">
         <v>55.35075020406402</v>
@@ -25766,7 +25766,7 @@
         <v>225.8763262542601</v>
       </c>
       <c r="V42" t="n">
-        <v>152.5640157470734</v>
+        <v>29.56582110090272</v>
       </c>
       <c r="W42" t="n">
         <v>48.46021711239706</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25806,10 +25806,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.74764850774388</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>140.017753555675</v>
       </c>
       <c r="S43" t="n">
-        <v>209.5690853592923</v>
+        <v>202.1594965053287</v>
       </c>
       <c r="T43" t="n">
         <v>224.4034240873793</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2738102244793</v>
+        <v>83.0390441759568</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>133.7955750145391</v>
+        <v>83.28823228806846</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>22.47488934051461</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>162.038125722485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>203.6412796931889</v>
+        <v>227.8668638061729</v>
       </c>
       <c r="G44" t="n">
         <v>210.2198193374986</v>
       </c>
       <c r="H44" t="n">
-        <v>280.7632368006803</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>139.22500461274</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>166.4963346299465</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>183.003172607531</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,19 +25952,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>125.5153561993494</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>23.32915313773458</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>55.35075020406402</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>153.3157426947255</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>196.1789750447687</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>122.2812347005926</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,10 +26043,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.74764850774388</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>140.017753555675</v>
       </c>
       <c r="S46" t="n">
-        <v>209.5690853592923</v>
+        <v>6.334319310769786</v>
       </c>
       <c r="T46" t="n">
-        <v>107.6639457152222</v>
+        <v>21.16865803885673</v>
       </c>
       <c r="U46" t="n">
         <v>286.2738102244793</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>83.28823228806846</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>15.34988730357225</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>400545.7934939155</v>
+        <v>400545.7934939154</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699309.3971619715</v>
+        <v>699309.3971619713</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699309.3971619715</v>
+        <v>699309.3971619713</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699309.3971619715</v>
+        <v>699309.3971619713</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400545.7934939155</v>
+        <v>400545.7934939154</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>400545.7934939154</v>
+        <v>400545.7934939155</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698526</v>
@@ -26328,22 +26328,22 @@
         <v>263725.0790143213</v>
       </c>
       <c r="G2" t="n">
+        <v>423391.7468849211</v>
+      </c>
+      <c r="H2" t="n">
         <v>423391.7468849212</v>
-      </c>
-      <c r="H2" t="n">
-        <v>423391.7468849213</v>
       </c>
       <c r="I2" t="n">
         <v>423391.7468849213</v>
       </c>
       <c r="J2" t="n">
+        <v>423391.7468849212</v>
+      </c>
+      <c r="K2" t="n">
         <v>423391.7468849213</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>423391.7468849211</v>
-      </c>
-      <c r="L2" t="n">
-        <v>423391.746884921</v>
       </c>
       <c r="M2" t="n">
         <v>423391.7468849212</v>
@@ -26355,7 +26355,7 @@
         <v>263725.0790143213</v>
       </c>
       <c r="P2" t="n">
-        <v>263725.0790143212</v>
+        <v>263725.0790143213</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50646.916638356</v>
+        <v>50646.91663835603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>27869.33091242662</v>
+        <v>27869.33091242663</v>
       </c>
       <c r="F4" t="n">
         <v>27869.33091242662</v>
@@ -26505,7 +26505,7 @@
         <v>50659.9999479457</v>
       </c>
       <c r="N5" t="n">
-        <v>50659.9999479457</v>
+        <v>50659.99994794572</v>
       </c>
       <c r="O5" t="n">
         <v>22378.74073390289</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145575.3469568937</v>
+        <v>145531.2111782127</v>
       </c>
       <c r="C6" t="n">
-        <v>145575.3469568937</v>
+        <v>145531.2111782125</v>
       </c>
       <c r="D6" t="n">
-        <v>145575.3469568938</v>
+        <v>145531.2111782127</v>
       </c>
       <c r="E6" t="n">
-        <v>-216551.1501496461</v>
+        <v>-227983.2261543801</v>
       </c>
       <c r="F6" t="n">
-        <v>213477.0073679918</v>
+        <v>202044.9313632578</v>
       </c>
       <c r="G6" t="n">
-        <v>144006.1287505896</v>
+        <v>138079.7999138073</v>
       </c>
       <c r="H6" t="n">
-        <v>271497.3940742892</v>
+        <v>265571.0652375069</v>
       </c>
       <c r="I6" t="n">
-        <v>271497.3940742892</v>
+        <v>265571.065237507</v>
       </c>
       <c r="J6" t="n">
-        <v>271497.3940742892</v>
+        <v>265571.0652375069</v>
       </c>
       <c r="K6" t="n">
-        <v>271497.394074289</v>
+        <v>265571.065237507</v>
       </c>
       <c r="L6" t="n">
-        <v>271497.394074289</v>
+        <v>265571.0652375068</v>
       </c>
       <c r="M6" t="n">
-        <v>220850.4774359331</v>
+        <v>214924.1485991509</v>
       </c>
       <c r="N6" t="n">
-        <v>271497.3940742891</v>
+        <v>265571.0652375069</v>
       </c>
       <c r="O6" t="n">
-        <v>213477.0073679918</v>
+        <v>202044.9313632578</v>
       </c>
       <c r="P6" t="n">
-        <v>213477.0073679917</v>
+        <v>202044.9313632578</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="F4" t="n">
         <v>203.2347660485225</v>
@@ -26825,7 +26825,7 @@
         <v>668.3870557531743</v>
       </c>
       <c r="N4" t="n">
-        <v>668.3870557531743</v>
+        <v>668.3870557531744</v>
       </c>
       <c r="O4" t="n">
         <v>203.2347660485225</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K11" t="n">
-        <v>15.00203034879908</v>
+        <v>103.9837831983277</v>
       </c>
       <c r="L11" t="n">
         <v>55.88585214516371</v>
@@ -35421,7 +35421,7 @@
         <v>94.17310931400849</v>
       </c>
       <c r="N11" t="n">
-        <v>203.2347660485225</v>
+        <v>100.3573411815354</v>
       </c>
       <c r="O11" t="n">
         <v>81.29463062256261</v>
@@ -35430,7 +35430,7 @@
         <v>34.53359060147898</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.6932670008513</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>21.8359191692746</v>
       </c>
       <c r="L12" t="n">
-        <v>203.2347660485225</v>
+        <v>76.15153365415307</v>
       </c>
       <c r="M12" t="n">
-        <v>157.9048037469209</v>
+        <v>108.4176400317995</v>
       </c>
       <c r="N12" t="n">
-        <v>125.841319140268</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="O12" t="n">
-        <v>92.67598434165143</v>
+        <v>191.8529335428878</v>
       </c>
       <c r="P12" t="n">
-        <v>203.2347660485225</v>
+        <v>203.2347660485226</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K14" t="n">
+        <v>184.5110654821234</v>
+      </c>
+      <c r="L14" t="n">
+        <v>55.88585214516371</v>
+      </c>
+      <c r="M14" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="L14" t="n">
-        <v>146.2238083132787</v>
-      </c>
-      <c r="M14" t="n">
-        <v>94.17310931400849</v>
       </c>
       <c r="N14" t="n">
         <v>100.3573411815354</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>92.67791289114203</v>
       </c>
       <c r="K15" t="n">
-        <v>21.8359191692746</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="L15" t="n">
-        <v>203.2347660485225</v>
+        <v>76.15153365415307</v>
       </c>
       <c r="M15" t="n">
-        <v>203.2347660485225</v>
+        <v>108.4176400317995</v>
       </c>
       <c r="N15" t="n">
         <v>125.841319140268</v>
       </c>
       <c r="O15" t="n">
-        <v>195.7284899359764</v>
+        <v>92.67598434165143</v>
       </c>
       <c r="P15" t="n">
-        <v>54.85229815259589</v>
+        <v>105.7284023876234</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>339.1474429199639</v>
@@ -35892,7 +35892,7 @@
         <v>473.5470666956141</v>
       </c>
       <c r="M17" t="n">
-        <v>143.2175481070581</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N17" t="n">
         <v>537.7042655935195</v>
@@ -35901,10 +35901,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P17" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052618</v>
       </c>
       <c r="Q17" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N18" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O18" t="n">
-        <v>390.0918762609134</v>
+        <v>486.538303618381</v>
       </c>
       <c r="P18" t="n">
-        <v>54.85229815259589</v>
+        <v>373.3150667925331</v>
       </c>
       <c r="Q18" t="n">
         <v>196.3211656967709</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>15.00203034879908</v>
+        <v>339.1474429199639</v>
       </c>
       <c r="L20" t="n">
-        <v>397.223384566996</v>
+        <v>473.5470666956141</v>
       </c>
       <c r="M20" t="n">
         <v>543.686642806841</v>
@@ -36138,10 +36138,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P20" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052618</v>
       </c>
       <c r="Q20" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.6310361704667</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>286.3011561818532</v>
@@ -36214,7 +36214,7 @@
         <v>605.1836934838216</v>
       </c>
       <c r="O21" t="n">
-        <v>92.67598434165143</v>
+        <v>164.307020512118</v>
       </c>
       <c r="P21" t="n">
         <v>373.3150667925331</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>339.1474429199639</v>
@@ -36366,7 +36366,7 @@
         <v>473.5470666956141</v>
       </c>
       <c r="M23" t="n">
-        <v>143.2175481070581</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N23" t="n">
         <v>537.7042655935195</v>
@@ -36375,10 +36375,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P23" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052618</v>
       </c>
       <c r="Q23" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>242.2323054879077</v>
+        <v>21.8359191692746</v>
       </c>
       <c r="L24" t="n">
-        <v>76.15153365415307</v>
+        <v>389.2258328639286</v>
       </c>
       <c r="M24" t="n">
         <v>574.1227037817994</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>339.1474429199639</v>
@@ -36609,13 +36609,13 @@
         <v>537.7042655935195</v>
       </c>
       <c r="O26" t="n">
-        <v>81.29463062256261</v>
+        <v>462.094811885308</v>
       </c>
       <c r="P26" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052618</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.9200255812721</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.8359191692746</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L27" t="n">
         <v>446.9918789576122</v>
       </c>
       <c r="M27" t="n">
-        <v>423.6787447969737</v>
+        <v>574.1227037817994</v>
       </c>
       <c r="N27" t="n">
         <v>605.1836934838216</v>
@@ -36691,10 +36691,10 @@
         <v>486.538303618381</v>
       </c>
       <c r="P27" t="n">
-        <v>373.3150667925331</v>
+        <v>247.4049493830411</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.3211656967709</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>66.23992588547259</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>339.1474429199639</v>
@@ -36849,10 +36849,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P29" t="n">
-        <v>34.53359060147898</v>
+        <v>290.3624555052618</v>
       </c>
       <c r="Q29" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.8359191692746</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L30" t="n">
         <v>446.9918789576122</v>
@@ -36928,10 +36928,10 @@
         <v>486.538303618381</v>
       </c>
       <c r="P30" t="n">
-        <v>373.3150667925331</v>
+        <v>247.4049493830415</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.87720671194453</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>473.5470666956141</v>
       </c>
       <c r="M32" t="n">
-        <v>143.2175481070581</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N32" t="n">
         <v>537.7042655935195</v>
       </c>
       <c r="O32" t="n">
-        <v>462.094811885308</v>
+        <v>383.4244253570074</v>
       </c>
       <c r="P32" t="n">
-        <v>356.3322987729616</v>
+        <v>34.53359060147898</v>
       </c>
       <c r="Q32" t="n">
         <v>189.5889390183101</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>286.3011561818532</v>
@@ -37159,7 +37159,7 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N33" t="n">
-        <v>190.2744974864167</v>
+        <v>282.9524103775591</v>
       </c>
       <c r="O33" t="n">
         <v>486.538303618381</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>339.1474429199639</v>
@@ -37314,7 +37314,7 @@
         <v>473.5470666956141</v>
       </c>
       <c r="M35" t="n">
-        <v>143.2175481070581</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N35" t="n">
         <v>537.7042655935195</v>
@@ -37323,10 +37323,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P35" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052618</v>
       </c>
       <c r="Q35" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.8359191692746</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L36" t="n">
-        <v>296.5479199727861</v>
+        <v>446.9918789576122</v>
       </c>
       <c r="M36" t="n">
         <v>574.1227037817994</v>
@@ -37402,10 +37402,10 @@
         <v>486.538303618381</v>
       </c>
       <c r="P36" t="n">
-        <v>373.3150667925331</v>
+        <v>247.4049493830411</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.3211656967709</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>473.5470666956141</v>
       </c>
       <c r="M38" t="n">
-        <v>288.1278605208313</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N38" t="n">
         <v>537.7042655935195</v>
@@ -37560,10 +37560,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P38" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052622</v>
       </c>
       <c r="Q38" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>48.60906219719693</v>
       </c>
       <c r="K39" t="n">
-        <v>21.8359191692746</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L39" t="n">
-        <v>389.2258328639281</v>
+        <v>76.15153365415307</v>
       </c>
       <c r="M39" t="n">
         <v>574.1227037817994</v>
@@ -37785,22 +37785,22 @@
         <v>15.00203034879908</v>
       </c>
       <c r="L41" t="n">
-        <v>203.2347660485225</v>
+        <v>55.88585214516371</v>
       </c>
       <c r="M41" t="n">
-        <v>203.2347660485225</v>
+        <v>94.17310931400849</v>
       </c>
       <c r="N41" t="n">
-        <v>122.5174624115009</v>
+        <v>100.3573411815354</v>
       </c>
       <c r="O41" t="n">
-        <v>81.29463062256261</v>
+        <v>170.276383472091</v>
       </c>
       <c r="P41" t="n">
         <v>34.53359060147898</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>76.15153365415307</v>
       </c>
       <c r="M42" t="n">
-        <v>108.4176400317995</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N42" t="n">
         <v>203.2347660485225</v>
@@ -37879,7 +37879,7 @@
         <v>203.2347660485225</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.17694920123628</v>
+        <v>4.359823184513241</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K44" t="n">
-        <v>126.9539601861407</v>
+        <v>15.00203034879908</v>
       </c>
       <c r="L44" t="n">
         <v>55.88585214516371</v>
@@ -38031,10 +38031,10 @@
         <v>100.3573411815354</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2347660485225</v>
+        <v>81.29463062256261</v>
       </c>
       <c r="P44" t="n">
-        <v>34.53359060147898</v>
+        <v>123.5153434510074</v>
       </c>
       <c r="Q44" t="n">
         <v>189.5889390183101</v>
@@ -38101,22 +38101,22 @@
         <v>21.8359191692746</v>
       </c>
       <c r="L45" t="n">
-        <v>203.2347660485225</v>
+        <v>76.15153365415307</v>
       </c>
       <c r="M45" t="n">
         <v>108.4176400317995</v>
       </c>
       <c r="N45" t="n">
-        <v>203.2347660485225</v>
+        <v>125.841319140268</v>
       </c>
       <c r="O45" t="n">
-        <v>92.67598434165143</v>
+        <v>128.629769759156</v>
       </c>
       <c r="P45" t="n">
         <v>54.85229815259589</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.79827181165139</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1390333.661180102</v>
+        <v>1430324.698720138</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4813841.518693741</v>
+        <v>4813841.518693743</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9327134.204923671</v>
+        <v>9327134.204923676</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7820286.609760025</v>
+        <v>7820286.609760026</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.2347660485226</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S11" t="n">
-        <v>145.2340501748436</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="U11" t="n">
-        <v>203.2347660485226</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="V11" t="n">
-        <v>203.2347660485226</v>
+        <v>181.563513279305</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,7 +1466,7 @@
         <v>136.3546685971475</v>
       </c>
       <c r="H12" t="n">
-        <v>102.6852488747809</v>
+        <v>29.49095408221953</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>53.92451860263277</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>203.2347660485226</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>51.90488430723165</v>
       </c>
       <c r="G13" t="n">
         <v>167.1619619382476</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.83516494718578</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="T13" t="n">
-        <v>203.2347660485226</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.2347660485226</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,76 +1606,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>33.77513176069503</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>33.77513176069502</v>
-      </c>
-      <c r="S14" t="n">
-        <v>166.905302944061</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.563513279305</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.2347660485225</v>
+        <v>145.2340501748435</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>77.46875557949242</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>170.7729670413063</v>
       </c>
       <c r="X15" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>162.2660428435259</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,28 +1809,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>103.1088148209407</v>
+      </c>
+      <c r="W16" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="T16" t="n">
+      <c r="X16" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>203.2347660485225</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>184.0777371438217</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.4545853860211</v>
       </c>
       <c r="H17" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>243.7356364015121</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1943,7 +1943,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I18" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.7624819544391</v>
+        <v>38.76248195443866</v>
       </c>
       <c r="S18" t="n">
         <v>153.3157426947255</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>172.5701353822521</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>7.662169353869438</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>354.0118611631869</v>
+        <v>139.7012930868762</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.4545853860211</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I20" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T20" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933835</v>
       </c>
       <c r="G21" t="n">
         <v>136.3546685971475</v>
@@ -2180,7 +2180,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I21" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.8658954656244</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>250.3020265327989</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>76.86156628337892</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S23" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1978007375074</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.057490921654612</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I24" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>119.7823663878908</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.347586160743486</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.2738102244793</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>338.1308113446967</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>139.22500461274</v>
+        <v>114.6202833081524</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U26" t="n">
         <v>251.1978007375074</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I27" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>164.587191158037</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>198.998123317043</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I29" t="n">
-        <v>139.22500461274</v>
+        <v>7.480720071479539</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>166.905302944061</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>137.3572350316988</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I30" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>215.9166715200358</v>
       </c>
       <c r="W31" t="n">
-        <v>19.01117069874065</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>12.19056193006705</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5893673653786351</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I33" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>43.33783808849862</v>
+        <v>68.21797229784352</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>112.575283713169</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>54.16940413840125</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>413.4545853860211</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T35" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I36" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406364</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154.8564539895622</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>74.036743033128</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>119.6162628727313</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,10 +3511,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>85.97384024799177</v>
       </c>
       <c r="F38" t="n">
-        <v>369.1790114098781</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.4545853860211</v>
@@ -3523,7 +3523,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I38" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I39" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.7624819544391</v>
+        <v>38.76248195443866</v>
       </c>
       <c r="S39" t="n">
         <v>153.3157426947255</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>154.0271950317373</v>
       </c>
       <c r="C40" t="n">
-        <v>96.10535306956552</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>154.8564539895622</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>203.2347660485225</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.77513176069502</v>
+        <v>12.10387899147759</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T41" t="n">
-        <v>145.2340501748435</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H42" t="n">
-        <v>38.61990737465375</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1789750447687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>59.68173186783588</v>
       </c>
       <c r="V42" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>154.8564539895622</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S43" t="n">
-        <v>7.40958885396368</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>203.2347660485225</v>
+        <v>95.79223178181684</v>
       </c>
       <c r="X43" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>179.0091819355386</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>203.2347660485225</v>
+        <v>179.0091819355385</v>
       </c>
       <c r="Y44" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>32.12972425605153</v>
+        <v>23.63253968502913</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>102.6852488747809</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>55.35075020406402</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>203.2347660485225</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.15272794597653</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>174.7551943234158</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="C11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="D11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="E11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I11" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J11" t="n">
-        <v>159.7199905735174</v>
+        <v>159.7199905735173</v>
       </c>
       <c r="K11" t="n">
-        <v>262.6639359398617</v>
+        <v>174.5720006188284</v>
       </c>
       <c r="L11" t="n">
-        <v>317.9909295635738</v>
+        <v>229.8989942425404</v>
       </c>
       <c r="M11" t="n">
-        <v>411.2223077844422</v>
+        <v>323.1303724634087</v>
       </c>
       <c r="N11" t="n">
-        <v>510.5760755541622</v>
+        <v>422.4841402331287</v>
       </c>
       <c r="O11" t="n">
-        <v>591.0577598704992</v>
+        <v>502.9658245494657</v>
       </c>
       <c r="P11" t="n">
-        <v>625.2460145659634</v>
+        <v>625.2460145659632</v>
       </c>
       <c r="Q11" t="n">
-        <v>812.9390641940904</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="R11" t="n">
-        <v>778.8227694863176</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="S11" t="n">
-        <v>632.1217087036473</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="T11" t="n">
-        <v>632.1217087036473</v>
+        <v>404.9439119180511</v>
       </c>
       <c r="U11" t="n">
-        <v>426.8340662303922</v>
+        <v>199.656269444796</v>
       </c>
       <c r="V11" t="n">
-        <v>221.546423757137</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="W11" t="n">
-        <v>221.546423757137</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="X11" t="n">
-        <v>221.546423757137</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="Y11" t="n">
-        <v>221.546423757137</v>
+        <v>16.2587812838818</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>553.1822110111051</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="C12" t="n">
-        <v>553.1822110111051</v>
+        <v>638.4860349129632</v>
       </c>
       <c r="D12" t="n">
-        <v>404.2478013498538</v>
+        <v>489.5516252517119</v>
       </c>
       <c r="E12" t="n">
-        <v>404.2478013498538</v>
+        <v>330.3141702462564</v>
       </c>
       <c r="F12" t="n">
-        <v>257.7132433767388</v>
+        <v>183.7796122731414</v>
       </c>
       <c r="G12" t="n">
-        <v>119.9812548947716</v>
+        <v>46.04762379117426</v>
       </c>
       <c r="H12" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I12" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J12" t="n">
-        <v>16.25878128388181</v>
+        <v>108.0099150461124</v>
       </c>
       <c r="K12" t="n">
-        <v>37.87634126146366</v>
+        <v>129.6274750236942</v>
       </c>
       <c r="L12" t="n">
-        <v>113.2663595790752</v>
+        <v>240.6117409046355</v>
       </c>
       <c r="M12" t="n">
-        <v>220.5998232105567</v>
+        <v>347.945204536117</v>
       </c>
       <c r="N12" t="n">
-        <v>421.8022415985942</v>
+        <v>472.5281104849822</v>
       </c>
       <c r="O12" t="n">
-        <v>611.736645806053</v>
+        <v>564.2773349832171</v>
       </c>
       <c r="P12" t="n">
-        <v>812.9390641940904</v>
+        <v>618.581110154287</v>
       </c>
       <c r="Q12" t="n">
-        <v>812.9390641940904</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="R12" t="n">
-        <v>812.9390641940904</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="S12" t="n">
-        <v>812.9390641940904</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="T12" t="n">
-        <v>812.9390641940904</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="U12" t="n">
-        <v>758.4698534843603</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="V12" t="n">
-        <v>758.4698534843603</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="W12" t="n">
-        <v>758.4698534843603</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="X12" t="n">
-        <v>553.1822110111051</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Y12" t="n">
-        <v>553.1822110111051</v>
+        <v>812.9390641940902</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>354.0454308160793</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="C13" t="n">
-        <v>185.1092478881723</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="D13" t="n">
-        <v>185.1092478881723</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="E13" t="n">
-        <v>185.1092478881723</v>
+        <v>237.5384239560831</v>
       </c>
       <c r="F13" t="n">
         <v>185.1092478881723</v>
       </c>
       <c r="G13" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H13" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I13" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J13" t="n">
-        <v>16.25878128388181</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="K13" t="n">
-        <v>89.56556804894521</v>
+        <v>89.56556804894535</v>
       </c>
       <c r="L13" t="n">
-        <v>238.8994510678578</v>
+        <v>238.8994510678579</v>
       </c>
       <c r="M13" t="n">
         <v>406.740215650389</v>
@@ -5214,37 +5214,37 @@
         <v>576.0247184155553</v>
       </c>
       <c r="O13" t="n">
-        <v>716.3700606954425</v>
+        <v>716.3700606954424</v>
       </c>
       <c r="P13" t="n">
-        <v>812.9390641940903</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q13" t="n">
-        <v>812.9390641940903</v>
+        <v>796.0268024849864</v>
       </c>
       <c r="R13" t="n">
-        <v>812.9390641940903</v>
+        <v>796.0268024849864</v>
       </c>
       <c r="S13" t="n">
-        <v>764.6207157625895</v>
+        <v>590.7391600117313</v>
       </c>
       <c r="T13" t="n">
-        <v>559.3330732893344</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="U13" t="n">
-        <v>559.3330732893344</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="V13" t="n">
-        <v>559.3330732893344</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="W13" t="n">
-        <v>354.0454308160793</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="X13" t="n">
-        <v>354.0454308160793</v>
+        <v>385.4515175384762</v>
       </c>
       <c r="Y13" t="n">
-        <v>354.0454308160793</v>
+        <v>385.4515175384762</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="C14" t="n">
         <v>16.2587812838818</v>
@@ -5278,19 +5278,19 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J14" t="n">
-        <v>159.7199905735174</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="K14" t="n">
-        <v>342.3859454008195</v>
+        <v>31.11079132919286</v>
       </c>
       <c r="L14" t="n">
-        <v>397.7129390245316</v>
+        <v>232.3132097172302</v>
       </c>
       <c r="M14" t="n">
-        <v>598.9153574125689</v>
+        <v>433.5156281052675</v>
       </c>
       <c r="N14" t="n">
-        <v>698.269125182289</v>
+        <v>577.5483911105887</v>
       </c>
       <c r="O14" t="n">
         <v>778.750809498626</v>
@@ -5305,22 +5305,22 @@
         <v>778.8227694863174</v>
       </c>
       <c r="S14" t="n">
-        <v>610.2315543913062</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="T14" t="n">
-        <v>610.2315543913062</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="U14" t="n">
-        <v>610.2315543913062</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="V14" t="n">
-        <v>610.2315543913062</v>
+        <v>573.5351270130623</v>
       </c>
       <c r="W14" t="n">
-        <v>610.2315543913062</v>
+        <v>573.5351270130623</v>
       </c>
       <c r="X14" t="n">
-        <v>426.8340662303921</v>
+        <v>368.2474845398071</v>
       </c>
       <c r="Y14" t="n">
         <v>221.5464237571369</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>400.2820625245659</v>
+        <v>190.7118105650088</v>
       </c>
       <c r="C15" t="n">
-        <v>400.2820625245659</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="D15" t="n">
-        <v>400.2820625245659</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="E15" t="n">
-        <v>241.0446075191104</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F15" t="n">
-        <v>94.51004954599537</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G15" t="n">
         <v>16.2587812838818</v>
@@ -5360,22 +5360,22 @@
         <v>108.0099150461124</v>
       </c>
       <c r="K15" t="n">
-        <v>309.2123334341497</v>
+        <v>165.221722587024</v>
       </c>
       <c r="L15" t="n">
-        <v>384.6023517517613</v>
+        <v>240.6117409046355</v>
       </c>
       <c r="M15" t="n">
-        <v>491.9358153832428</v>
+        <v>347.945204536117</v>
       </c>
       <c r="N15" t="n">
-        <v>616.5187213321082</v>
+        <v>472.5281104849822</v>
       </c>
       <c r="O15" t="n">
-        <v>708.267945830343</v>
+        <v>564.2773349832171</v>
       </c>
       <c r="P15" t="n">
-        <v>812.9390641940902</v>
+        <v>618.581110154287</v>
       </c>
       <c r="Q15" t="n">
         <v>812.9390641940902</v>
@@ -5390,19 +5390,19 @@
         <v>773.7850420178891</v>
       </c>
       <c r="U15" t="n">
-        <v>773.7850420178891</v>
+        <v>568.4973995446339</v>
       </c>
       <c r="V15" t="n">
-        <v>773.7850420178891</v>
+        <v>363.2097570713788</v>
       </c>
       <c r="W15" t="n">
-        <v>773.7850420178891</v>
+        <v>190.7118105650088</v>
       </c>
       <c r="X15" t="n">
-        <v>568.4973995446339</v>
+        <v>190.7118105650088</v>
       </c>
       <c r="Y15" t="n">
-        <v>568.4973995446339</v>
+        <v>190.7118105650088</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.1638750652211</v>
+        <v>298.2134612466298</v>
       </c>
       <c r="C16" t="n">
-        <v>180.1638750652211</v>
+        <v>298.2134612466298</v>
       </c>
       <c r="D16" t="n">
-        <v>180.1638750652211</v>
+        <v>148.0968218342941</v>
       </c>
       <c r="E16" t="n">
-        <v>180.1638750652211</v>
+        <v>148.0968218342941</v>
       </c>
       <c r="F16" t="n">
-        <v>180.1638750652211</v>
+        <v>148.0968218342941</v>
       </c>
       <c r="G16" t="n">
-        <v>16.2587812838818</v>
+        <v>148.0968218342941</v>
       </c>
       <c r="H16" t="n">
-        <v>16.2587812838818</v>
+        <v>148.0968218342941</v>
       </c>
       <c r="I16" t="n">
         <v>16.2587812838818</v>
@@ -5439,13 +5439,13 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K16" t="n">
-        <v>89.56556804894518</v>
+        <v>89.56556804894535</v>
       </c>
       <c r="L16" t="n">
-        <v>238.8994510678577</v>
+        <v>238.8994510678579</v>
       </c>
       <c r="M16" t="n">
-        <v>406.740215650389</v>
+        <v>406.7402156503891</v>
       </c>
       <c r="N16" t="n">
         <v>576.0247184155553</v>
@@ -5457,31 +5457,31 @@
         <v>812.9390641940902</v>
       </c>
       <c r="Q16" t="n">
-        <v>796.0268024849864</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="R16" t="n">
-        <v>796.0268024849864</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="S16" t="n">
-        <v>590.7391600117313</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="T16" t="n">
-        <v>385.4515175384762</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="U16" t="n">
-        <v>385.4515175384762</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="V16" t="n">
-        <v>180.1638750652211</v>
+        <v>708.78874619314</v>
       </c>
       <c r="W16" t="n">
-        <v>180.1638750652211</v>
+        <v>503.501103719885</v>
       </c>
       <c r="X16" t="n">
-        <v>180.1638750652211</v>
+        <v>298.2134612466298</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.1638750652211</v>
+        <v>298.2134612466298</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.229708985542</v>
+        <v>840.0643757299799</v>
       </c>
       <c r="C17" t="n">
-        <v>1918.229708985542</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="D17" t="n">
-        <v>1732.292600759459</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="E17" t="n">
-        <v>1346.504348161215</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="F17" t="n">
-        <v>935.5184433716075</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="G17" t="n">
-        <v>517.8875490422932</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H17" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I17" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J17" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K17" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L17" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M17" t="n">
-        <v>1396.288305358449</v>
+        <v>1143.285110895299</v>
       </c>
       <c r="N17" t="n">
-        <v>1928.615528296033</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O17" t="n">
-        <v>2386.089392062488</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P17" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q17" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R17" t="n">
-        <v>2639.431928304924</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="S17" t="n">
-        <v>2639.431928304924</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="T17" t="n">
-        <v>2639.431928304924</v>
+        <v>2456.370886023874</v>
       </c>
       <c r="U17" t="n">
-        <v>2639.431928304924</v>
+        <v>2202.635733763766</v>
       </c>
       <c r="V17" t="n">
-        <v>2308.369040961354</v>
+        <v>1956.438121236986</v>
       </c>
       <c r="W17" t="n">
-        <v>2308.369040961354</v>
+        <v>1603.669465966871</v>
       </c>
       <c r="X17" t="n">
-        <v>2308.369040961354</v>
+        <v>1230.203707705792</v>
       </c>
       <c r="Y17" t="n">
-        <v>1918.229708985542</v>
+        <v>840.0643757299799</v>
       </c>
     </row>
     <row r="18">
@@ -5594,13 +5594,13 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J18" t="n">
-        <v>145.2220982224846</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K18" t="n">
         <v>428.6602428425192</v>
       </c>
       <c r="L18" t="n">
-        <v>871.1822030105553</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M18" t="n">
         <v>1439.563679754537</v>
@@ -5618,19 +5618,19 @@
         <v>2673.548223012697</v>
       </c>
       <c r="R18" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S18" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T18" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U18" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V18" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W18" t="n">
         <v>1563.821863155588</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.4071473881609</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="C19" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="D19" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="E19" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="F19" t="n">
         <v>53.47096446025395</v>
@@ -5688,37 +5688,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O19" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S19" t="n">
-        <v>638.4653025630963</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T19" t="n">
-        <v>411.7951772223091</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="U19" t="n">
-        <v>411.7951772223091</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="V19" t="n">
-        <v>411.7951772223091</v>
+        <v>595.4667591645754</v>
       </c>
       <c r="W19" t="n">
-        <v>404.0556122184006</v>
+        <v>595.4667591645754</v>
       </c>
       <c r="X19" t="n">
-        <v>404.0556122184006</v>
+        <v>595.4667591645754</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.0556122184006</v>
+        <v>374.6741800210452</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1327.586613735639</v>
+        <v>1487.616765420686</v>
       </c>
       <c r="C20" t="n">
-        <v>1327.586613735639</v>
+        <v>1487.616765420686</v>
       </c>
       <c r="D20" t="n">
-        <v>969.3209151288884</v>
+        <v>1487.616765420686</v>
       </c>
       <c r="E20" t="n">
-        <v>611.7331765802147</v>
+        <v>1346.504348161215</v>
       </c>
       <c r="F20" t="n">
-        <v>611.7331765802147</v>
+        <v>935.5184433716076</v>
       </c>
       <c r="G20" t="n">
-        <v>194.1022822509005</v>
+        <v>517.8875490422934</v>
       </c>
       <c r="H20" t="n">
         <v>194.1022822509005</v>
@@ -5752,52 +5752,52 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J20" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K20" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L20" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M20" t="n">
-        <v>1396.288305358449</v>
+        <v>1143.285110895299</v>
       </c>
       <c r="N20" t="n">
-        <v>1928.615528296033</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O20" t="n">
-        <v>2386.089392062488</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P20" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q20" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R20" t="n">
-        <v>2639.431928304924</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="S20" t="n">
-        <v>2639.431928304924</v>
+        <v>2504.957007917686</v>
       </c>
       <c r="T20" t="n">
-        <v>2422.254591316101</v>
+        <v>2504.957007917686</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.254591316101</v>
+        <v>2251.221855657578</v>
       </c>
       <c r="V20" t="n">
-        <v>2091.19170397253</v>
+        <v>2251.221855657578</v>
       </c>
       <c r="W20" t="n">
-        <v>2091.19170397253</v>
+        <v>2251.221855657578</v>
       </c>
       <c r="X20" t="n">
-        <v>1717.725945711451</v>
+        <v>1877.756097396498</v>
       </c>
       <c r="Y20" t="n">
-        <v>1327.586613735639</v>
+        <v>1487.616765420686</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.9947271650326</v>
+        <v>979.9947271650331</v>
       </c>
       <c r="C21" t="n">
-        <v>805.5416978839056</v>
+        <v>805.5416978839061</v>
       </c>
       <c r="D21" t="n">
-        <v>656.6072882226542</v>
+        <v>656.6072882226548</v>
       </c>
       <c r="E21" t="n">
-        <v>497.3698332171987</v>
+        <v>497.3698332171993</v>
       </c>
       <c r="F21" t="n">
-        <v>350.835275244084</v>
+        <v>350.8352752440846</v>
       </c>
       <c r="G21" t="n">
         <v>213.1032867621175</v>
@@ -5831,19 +5831,19 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J21" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K21" t="n">
-        <v>336.9091090802886</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L21" t="n">
-        <v>779.4310692483248</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M21" t="n">
-        <v>1347.812545992306</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N21" t="n">
-        <v>1946.944402541289</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O21" t="n">
         <v>2109.608352848286</v>
@@ -5870,7 +5870,7 @@
         <v>1818.059219883789</v>
       </c>
       <c r="W21" t="n">
-        <v>1563.821863155587</v>
+        <v>1563.821863155588</v>
       </c>
       <c r="X21" t="n">
         <v>1355.970362950055</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.47096446025395</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="C22" t="n">
-        <v>53.47096446025395</v>
+        <v>369.2113785624548</v>
       </c>
       <c r="D22" t="n">
-        <v>53.47096446025395</v>
+        <v>369.2113785624548</v>
       </c>
       <c r="E22" t="n">
-        <v>53.47096446025395</v>
+        <v>369.2113785624548</v>
       </c>
       <c r="F22" t="n">
-        <v>53.47096446025395</v>
+        <v>222.3214310645445</v>
       </c>
       <c r="G22" t="n">
         <v>53.47096446025395</v>
@@ -5925,37 +5925,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O22" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P22" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q22" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R22" t="n">
-        <v>850.1512473704623</v>
+        <v>708.7191730718005</v>
       </c>
       <c r="S22" t="n">
-        <v>850.1512473704623</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="T22" t="n">
-        <v>850.1512473704623</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="U22" t="n">
-        <v>560.9857824972509</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="V22" t="n">
-        <v>306.301294291364</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="W22" t="n">
-        <v>53.47096446025395</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="X22" t="n">
-        <v>53.47096446025395</v>
+        <v>538.1475614903617</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.47096446025395</v>
+        <v>538.1475614903617</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1662.74665891877</v>
+        <v>1269.32303053781</v>
       </c>
       <c r="C23" t="n">
-        <v>1293.784141978358</v>
+        <v>900.3605135973987</v>
       </c>
       <c r="D23" t="n">
-        <v>935.5184433716075</v>
+        <v>542.0948149906483</v>
       </c>
       <c r="E23" t="n">
-        <v>935.5184433716075</v>
+        <v>464.4568692498615</v>
       </c>
       <c r="F23" t="n">
-        <v>935.5184433716075</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="G23" t="n">
-        <v>517.8875490422932</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H23" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I23" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J23" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K23" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L23" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M23" t="n">
-        <v>1396.288305358449</v>
+        <v>1143.285110895299</v>
       </c>
       <c r="N23" t="n">
-        <v>1928.615528296033</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O23" t="n">
-        <v>2386.089392062488</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P23" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q23" t="n">
         <v>2673.548223012697</v>
@@ -6016,25 +6016,25 @@
         <v>2639.431928304924</v>
       </c>
       <c r="S23" t="n">
-        <v>2470.840713209913</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="T23" t="n">
-        <v>2253.66337622109</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="U23" t="n">
-        <v>1999.928223960982</v>
+        <v>2385.696776044816</v>
       </c>
       <c r="V23" t="n">
-        <v>1668.865336617411</v>
+        <v>2385.696776044816</v>
       </c>
       <c r="W23" t="n">
-        <v>1662.74665891877</v>
+        <v>2032.928120774702</v>
       </c>
       <c r="X23" t="n">
-        <v>1662.74665891877</v>
+        <v>1659.462362513622</v>
       </c>
       <c r="Y23" t="n">
-        <v>1662.74665891877</v>
+        <v>1269.32303053781</v>
       </c>
     </row>
     <row r="24">
@@ -6044,70 +6044,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.9947271650334</v>
+        <v>979.9947271650326</v>
       </c>
       <c r="C24" t="n">
-        <v>805.5416978839064</v>
+        <v>805.5416978839056</v>
       </c>
       <c r="D24" t="n">
-        <v>656.6072882226551</v>
+        <v>656.6072882226542</v>
       </c>
       <c r="E24" t="n">
-        <v>497.3698332171997</v>
+        <v>497.3698332171987</v>
       </c>
       <c r="F24" t="n">
-        <v>350.8352752440846</v>
+        <v>350.835275244084</v>
       </c>
       <c r="G24" t="n">
-        <v>213.1032867621175</v>
+        <v>213.103286762117</v>
       </c>
       <c r="H24" t="n">
-        <v>109.3808131512277</v>
+        <v>109.3808131512274</v>
       </c>
       <c r="I24" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J24" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K24" t="n">
-        <v>75.0885244378358</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L24" t="n">
-        <v>460.4220989731251</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M24" t="n">
-        <v>1028.803575717106</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.93543226609</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O24" t="n">
-        <v>2109.608352848287</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P24" t="n">
-        <v>2479.190268972895</v>
+        <v>2479.190268972894</v>
       </c>
       <c r="Q24" t="n">
-        <v>2673.548223012698</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="R24" t="n">
-        <v>2634.394200836497</v>
+        <v>2634.394200836496</v>
       </c>
       <c r="S24" t="n">
-        <v>2479.529814276168</v>
+        <v>2479.529814276167</v>
       </c>
       <c r="T24" t="n">
-        <v>2281.369233422866</v>
+        <v>2281.369233422865</v>
       </c>
       <c r="U24" t="n">
-        <v>2053.211328115533</v>
+        <v>2053.211328115532</v>
       </c>
       <c r="V24" t="n">
-        <v>1818.05921988379</v>
+        <v>1818.059219883789</v>
       </c>
       <c r="W24" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155587</v>
       </c>
       <c r="X24" t="n">
         <v>1355.970362950055</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="E25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="F25" t="n">
-        <v>185.3090050106663</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="G25" t="n">
-        <v>185.3090050106663</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H25" t="n">
-        <v>185.3090050106663</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I25" t="n">
         <v>53.47096446025395</v>
@@ -6162,37 +6162,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O25" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P25" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q25" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R25" t="n">
-        <v>850.1512473704623</v>
+        <v>843.739544177792</v>
       </c>
       <c r="S25" t="n">
-        <v>850.1512473704623</v>
+        <v>632.053599370426</v>
       </c>
       <c r="T25" t="n">
-        <v>850.1512473704623</v>
+        <v>632.053599370426</v>
       </c>
       <c r="U25" t="n">
-        <v>560.9857824972509</v>
+        <v>342.8881344972145</v>
       </c>
       <c r="V25" t="n">
-        <v>306.301294291364</v>
+        <v>342.8881344972145</v>
       </c>
       <c r="W25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="X25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="Y25" t="n">
-        <v>306.301294291364</v>
+        <v>53.47096446025395</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1656.207980515697</v>
+        <v>1282.265496553289</v>
       </c>
       <c r="C26" t="n">
-        <v>1656.207980515697</v>
+        <v>913.3029796128774</v>
       </c>
       <c r="D26" t="n">
-        <v>1656.207980515697</v>
+        <v>555.0372810061269</v>
       </c>
       <c r="E26" t="n">
-        <v>1270.419727917453</v>
+        <v>169.2490284078827</v>
       </c>
       <c r="F26" t="n">
-        <v>859.4338231278455</v>
+        <v>169.2490284078827</v>
       </c>
       <c r="G26" t="n">
-        <v>517.8875490422932</v>
+        <v>169.2490284078827</v>
       </c>
       <c r="H26" t="n">
-        <v>194.1022822509005</v>
+        <v>169.2490284078827</v>
       </c>
       <c r="I26" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J26" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K26" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L26" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M26" t="n">
-        <v>1396.288305358449</v>
+        <v>1143.285110895299</v>
       </c>
       <c r="N26" t="n">
-        <v>1928.615528296033</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O26" t="n">
-        <v>2386.089392062488</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P26" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q26" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R26" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S26" t="n">
-        <v>2673.548223012697</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="T26" t="n">
-        <v>2673.548223012697</v>
+        <v>2253.66337622109</v>
       </c>
       <c r="U26" t="n">
-        <v>2419.813070752589</v>
+        <v>1999.928223960982</v>
       </c>
       <c r="V26" t="n">
-        <v>2419.813070752589</v>
+        <v>1668.865336617411</v>
       </c>
       <c r="W26" t="n">
-        <v>2419.813070752589</v>
+        <v>1668.865336617411</v>
       </c>
       <c r="X26" t="n">
-        <v>2046.347312491509</v>
+        <v>1668.865336617411</v>
       </c>
       <c r="Y26" t="n">
-        <v>1656.207980515697</v>
+        <v>1668.865336617411</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.9947271650335</v>
+        <v>979.9947271650326</v>
       </c>
       <c r="C27" t="n">
-        <v>805.5416978839065</v>
+        <v>805.5416978839056</v>
       </c>
       <c r="D27" t="n">
-        <v>656.6072882226551</v>
+        <v>656.6072882226542</v>
       </c>
       <c r="E27" t="n">
-        <v>497.3698332171996</v>
+        <v>497.3698332171987</v>
       </c>
       <c r="F27" t="n">
-        <v>350.8352752440844</v>
+        <v>350.835275244084</v>
       </c>
       <c r="G27" t="n">
-        <v>213.1032867621176</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H27" t="n">
-        <v>109.3808131512278</v>
+        <v>109.3808131512277</v>
       </c>
       <c r="I27" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J27" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K27" t="n">
-        <v>336.9091090802886</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L27" t="n">
-        <v>779.4310692483248</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M27" t="n">
-        <v>1347.812545992306</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N27" t="n">
-        <v>1946.944402541289</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O27" t="n">
-        <v>2428.617323123487</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P27" t="n">
-        <v>2673.548223012697</v>
+        <v>2479.190268972894</v>
       </c>
       <c r="Q27" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R27" t="n">
-        <v>2634.394200836497</v>
+        <v>2634.394200836496</v>
       </c>
       <c r="S27" t="n">
-        <v>2479.529814276168</v>
+        <v>2479.529814276167</v>
       </c>
       <c r="T27" t="n">
-        <v>2281.369233422866</v>
+        <v>2281.369233422865</v>
       </c>
       <c r="U27" t="n">
-        <v>2053.211328115533</v>
+        <v>2053.211328115532</v>
       </c>
       <c r="V27" t="n">
-        <v>1818.05921988379</v>
+        <v>1818.059219883789</v>
       </c>
       <c r="W27" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155587</v>
       </c>
       <c r="X27" t="n">
         <v>1355.970362950055</v>
       </c>
       <c r="Y27" t="n">
-        <v>1148.210064185102</v>
+        <v>1148.210064185101</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="C28" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="D28" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="E28" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="F28" t="n">
         <v>53.47096446025395</v>
@@ -6399,37 +6399,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O28" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P28" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q28" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R28" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S28" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T28" t="n">
-        <v>683.9015593320411</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="U28" t="n">
-        <v>683.9015593320411</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="V28" t="n">
-        <v>683.9015593320411</v>
+        <v>649.1430419997117</v>
       </c>
       <c r="W28" t="n">
-        <v>683.9015593320411</v>
+        <v>649.1430419997117</v>
       </c>
       <c r="X28" t="n">
-        <v>455.9120084340237</v>
+        <v>421.1534911016944</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.1194292904937</v>
+        <v>200.3609119581643</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>948.8530517895565</v>
+        <v>1171.405925421857</v>
       </c>
       <c r="C29" t="n">
-        <v>579.8905348491447</v>
+        <v>802.4434084814454</v>
       </c>
       <c r="D29" t="n">
-        <v>579.8905348491447</v>
+        <v>802.4434084814454</v>
       </c>
       <c r="E29" t="n">
-        <v>194.1022822509005</v>
+        <v>802.4434084814454</v>
       </c>
       <c r="F29" t="n">
-        <v>194.1022822509005</v>
+        <v>802.4434084814454</v>
       </c>
       <c r="G29" t="n">
-        <v>194.1022822509005</v>
+        <v>384.8125141521311</v>
       </c>
       <c r="H29" t="n">
-        <v>194.1022822509005</v>
+        <v>61.02724736073833</v>
       </c>
       <c r="I29" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J29" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K29" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L29" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M29" t="n">
-        <v>1396.288305358449</v>
+        <v>1461.865831985067</v>
       </c>
       <c r="N29" t="n">
-        <v>1928.615528296033</v>
+        <v>1994.193054922651</v>
       </c>
       <c r="O29" t="n">
-        <v>2386.089392062488</v>
+        <v>2451.666918689106</v>
       </c>
       <c r="P29" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q29" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R29" t="n">
-        <v>2639.431928304924</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="S29" t="n">
-        <v>2470.840713209913</v>
+        <v>2504.957007917686</v>
       </c>
       <c r="T29" t="n">
-        <v>2470.840713209913</v>
+        <v>2287.779670928863</v>
       </c>
       <c r="U29" t="n">
-        <v>2217.105560949805</v>
+        <v>2287.779670928863</v>
       </c>
       <c r="V29" t="n">
-        <v>2217.105560949805</v>
+        <v>2287.779670928863</v>
       </c>
       <c r="W29" t="n">
-        <v>1864.336905679691</v>
+        <v>1935.011015658749</v>
       </c>
       <c r="X29" t="n">
-        <v>1725.59222382949</v>
+        <v>1561.545257397669</v>
       </c>
       <c r="Y29" t="n">
-        <v>1335.452891853678</v>
+        <v>1171.405925421857</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.9947271650334</v>
+        <v>979.9947271650326</v>
       </c>
       <c r="C30" t="n">
-        <v>805.5416978839064</v>
+        <v>805.5416978839056</v>
       </c>
       <c r="D30" t="n">
-        <v>656.6072882226551</v>
+        <v>656.6072882226542</v>
       </c>
       <c r="E30" t="n">
-        <v>497.3698332171997</v>
+        <v>497.3698332171987</v>
       </c>
       <c r="F30" t="n">
-        <v>350.8352752440846</v>
+        <v>350.835275244084</v>
       </c>
       <c r="G30" t="n">
         <v>213.1032867621175</v>
@@ -6542,46 +6542,46 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J30" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K30" t="n">
-        <v>336.9091090802886</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L30" t="n">
-        <v>779.4310692483248</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M30" t="n">
-        <v>1347.812545992306</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N30" t="n">
-        <v>1946.944402541289</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O30" t="n">
-        <v>2428.617323123487</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P30" t="n">
-        <v>2673.548223012698</v>
+        <v>2479.190268972894</v>
       </c>
       <c r="Q30" t="n">
-        <v>2673.548223012698</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="R30" t="n">
-        <v>2634.394200836497</v>
+        <v>2634.394200836496</v>
       </c>
       <c r="S30" t="n">
-        <v>2479.529814276168</v>
+        <v>2479.529814276167</v>
       </c>
       <c r="T30" t="n">
-        <v>2281.369233422866</v>
+        <v>2281.369233422865</v>
       </c>
       <c r="U30" t="n">
-        <v>2053.211328115533</v>
+        <v>2053.211328115532</v>
       </c>
       <c r="V30" t="n">
-        <v>1818.05921988379</v>
+        <v>1818.059219883789</v>
       </c>
       <c r="W30" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155587</v>
       </c>
       <c r="X30" t="n">
         <v>1355.970362950055</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C31" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D31" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="E31" t="n">
-        <v>200.3609119581643</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="F31" t="n">
         <v>53.47096446025395</v>
@@ -6636,37 +6636,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O31" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="U31" t="n">
-        <v>850.1512473704623</v>
+        <v>560.9857824972507</v>
       </c>
       <c r="V31" t="n">
-        <v>595.4667591645755</v>
+        <v>342.8881344972145</v>
       </c>
       <c r="W31" t="n">
-        <v>576.2635564385748</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="X31" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="Y31" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1192.280405368113</v>
+        <v>1744.606299678719</v>
       </c>
       <c r="C32" t="n">
-        <v>823.3178884277015</v>
+        <v>1744.606299678719</v>
       </c>
       <c r="D32" t="n">
-        <v>465.052189820951</v>
+        <v>1732.292600759459</v>
       </c>
       <c r="E32" t="n">
-        <v>464.4568692498615</v>
+        <v>1346.504348161215</v>
       </c>
       <c r="F32" t="n">
-        <v>53.47096446025395</v>
+        <v>935.5184433716076</v>
       </c>
       <c r="G32" t="n">
-        <v>53.47096446025395</v>
+        <v>517.8875490422934</v>
       </c>
       <c r="H32" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I32" t="n">
         <v>53.47096446025395</v>
@@ -6709,13 +6709,13 @@
         <v>1001.499738269312</v>
       </c>
       <c r="M32" t="n">
-        <v>1539.749514648084</v>
+        <v>1143.285110895299</v>
       </c>
       <c r="N32" t="n">
-        <v>2072.076737585669</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O32" t="n">
-        <v>2451.666918689106</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P32" t="n">
         <v>2485.85517338457</v>
@@ -6724,28 +6724,28 @@
         <v>2673.548223012697</v>
       </c>
       <c r="R32" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S32" t="n">
-        <v>2673.548223012697</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="T32" t="n">
-        <v>2673.548223012697</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="U32" t="n">
-        <v>2673.548223012697</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="V32" t="n">
-        <v>2342.485335669126</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="W32" t="n">
-        <v>2342.485335669126</v>
+        <v>2118.072057939799</v>
       </c>
       <c r="X32" t="n">
-        <v>1969.019577408047</v>
+        <v>1744.606299678719</v>
       </c>
       <c r="Y32" t="n">
-        <v>1578.880245432235</v>
+        <v>1744.606299678719</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.9947271650334</v>
+        <v>979.9947271650326</v>
       </c>
       <c r="C33" t="n">
-        <v>805.5416978839064</v>
+        <v>805.5416978839056</v>
       </c>
       <c r="D33" t="n">
-        <v>656.6072882226551</v>
+        <v>656.6072882226542</v>
       </c>
       <c r="E33" t="n">
-        <v>497.3698332171997</v>
+        <v>497.3698332171987</v>
       </c>
       <c r="F33" t="n">
-        <v>350.8352752440846</v>
+        <v>350.835275244084</v>
       </c>
       <c r="G33" t="n">
         <v>213.1032867621175</v>
@@ -6779,46 +6779,46 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J33" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K33" t="n">
-        <v>336.9091090802886</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L33" t="n">
-        <v>779.4310692483248</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M33" t="n">
-        <v>1347.812545992306</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N33" t="n">
-        <v>1627.93543226609</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.608352848287</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P33" t="n">
-        <v>2479.190268972895</v>
+        <v>2479.190268972894</v>
       </c>
       <c r="Q33" t="n">
-        <v>2673.548223012698</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="R33" t="n">
-        <v>2634.394200836497</v>
+        <v>2634.394200836496</v>
       </c>
       <c r="S33" t="n">
-        <v>2479.529814276168</v>
+        <v>2479.529814276167</v>
       </c>
       <c r="T33" t="n">
-        <v>2281.369233422866</v>
+        <v>2281.369233422865</v>
       </c>
       <c r="U33" t="n">
-        <v>2053.211328115533</v>
+        <v>2053.211328115532</v>
       </c>
       <c r="V33" t="n">
-        <v>1818.05921988379</v>
+        <v>1818.059219883789</v>
       </c>
       <c r="W33" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155587</v>
       </c>
       <c r="X33" t="n">
         <v>1355.970362950055</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.2101884684644</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C34" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D34" t="n">
-        <v>348.2740055405574</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="E34" t="n">
-        <v>200.3609119581643</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="F34" t="n">
         <v>53.47096446025395</v>
@@ -6873,37 +6873,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O34" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S34" t="n">
-        <v>850.1512473704623</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="T34" t="n">
-        <v>850.1512473704623</v>
+        <v>411.795177222309</v>
       </c>
       <c r="U34" t="n">
-        <v>560.9857824972509</v>
+        <v>411.795177222309</v>
       </c>
       <c r="V34" t="n">
-        <v>517.2101884684644</v>
+        <v>342.8881344972145</v>
       </c>
       <c r="W34" t="n">
-        <v>517.2101884684644</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="X34" t="n">
-        <v>517.2101884684644</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.2101884684644</v>
+        <v>53.47096446025395</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>995.8001713702556</v>
+        <v>1787.009170596228</v>
       </c>
       <c r="C35" t="n">
-        <v>882.0877635791758</v>
+        <v>1787.009170596228</v>
       </c>
       <c r="D35" t="n">
-        <v>882.0877635791758</v>
+        <v>1732.292600759459</v>
       </c>
       <c r="E35" t="n">
-        <v>882.0877635791758</v>
+        <v>1346.504348161215</v>
       </c>
       <c r="F35" t="n">
-        <v>471.1018587895682</v>
+        <v>935.5184433716076</v>
       </c>
       <c r="G35" t="n">
-        <v>53.47096446025395</v>
+        <v>517.8875490422934</v>
       </c>
       <c r="H35" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I35" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J35" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K35" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L35" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M35" t="n">
-        <v>1396.288305358449</v>
+        <v>1539.749514648084</v>
       </c>
       <c r="N35" t="n">
-        <v>1928.615528296033</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O35" t="n">
-        <v>2386.089392062488</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P35" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q35" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R35" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S35" t="n">
-        <v>2673.548223012697</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="T35" t="n">
-        <v>2456.370886023874</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="U35" t="n">
-        <v>2456.370886023874</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="V35" t="n">
-        <v>2125.307998680303</v>
+        <v>2139.777825866342</v>
       </c>
       <c r="W35" t="n">
-        <v>1772.539343410189</v>
+        <v>1787.009170596228</v>
       </c>
       <c r="X35" t="n">
-        <v>1772.539343410189</v>
+        <v>1787.009170596228</v>
       </c>
       <c r="Y35" t="n">
-        <v>1382.400011434377</v>
+        <v>1787.009170596228</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.9947271650326</v>
+        <v>979.9947271650331</v>
       </c>
       <c r="C36" t="n">
-        <v>805.5416978839056</v>
+        <v>805.5416978839061</v>
       </c>
       <c r="D36" t="n">
-        <v>656.6072882226542</v>
+        <v>656.6072882226548</v>
       </c>
       <c r="E36" t="n">
-        <v>497.3698332171987</v>
+        <v>497.3698332171993</v>
       </c>
       <c r="F36" t="n">
-        <v>350.835275244084</v>
+        <v>350.8352752440843</v>
       </c>
       <c r="G36" t="n">
-        <v>213.1032867621175</v>
+        <v>213.1032867621172</v>
       </c>
       <c r="H36" t="n">
-        <v>109.3808131512277</v>
+        <v>109.3808131512273</v>
       </c>
       <c r="I36" t="n">
         <v>53.47096446025395</v>
@@ -7019,22 +7019,22 @@
         <v>53.47096446025395</v>
       </c>
       <c r="K36" t="n">
-        <v>336.9091090802886</v>
+        <v>336.9091090802885</v>
       </c>
       <c r="L36" t="n">
-        <v>779.4310692483248</v>
+        <v>779.4310692483247</v>
       </c>
       <c r="M36" t="n">
         <v>1347.812545992306</v>
       </c>
       <c r="N36" t="n">
-        <v>1946.944402541289</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O36" t="n">
-        <v>2428.617323123487</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P36" t="n">
-        <v>2673.548223012697</v>
+        <v>2479.190268972894</v>
       </c>
       <c r="Q36" t="n">
         <v>2673.548223012697</v>
@@ -7055,7 +7055,7 @@
         <v>1818.059219883789</v>
       </c>
       <c r="W36" t="n">
-        <v>1563.821863155587</v>
+        <v>1563.821863155588</v>
       </c>
       <c r="X36" t="n">
         <v>1355.970362950055</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>547.6782745879688</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="C37" t="n">
-        <v>378.7420916600618</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="D37" t="n">
-        <v>378.7420916600618</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="E37" t="n">
-        <v>378.7420916600618</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="F37" t="n">
-        <v>378.7420916600618</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="G37" t="n">
-        <v>209.8916250557713</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="H37" t="n">
-        <v>53.47096446025395</v>
+        <v>128.2555533826055</v>
       </c>
       <c r="I37" t="n">
         <v>53.47096446025395</v>
@@ -7110,37 +7110,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O37" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P37" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q37" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R37" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S37" t="n">
-        <v>850.1512473704623</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="T37" t="n">
-        <v>850.1512473704623</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="U37" t="n">
-        <v>850.1512473704623</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="V37" t="n">
-        <v>850.1512473704623</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="W37" t="n">
-        <v>850.1512473704623</v>
+        <v>349.0481325261356</v>
       </c>
       <c r="X37" t="n">
-        <v>729.3267394182085</v>
+        <v>349.0481325261356</v>
       </c>
       <c r="Y37" t="n">
-        <v>729.3267394182085</v>
+        <v>128.2555533826055</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2035.65475125198</v>
+        <v>1608.957604004883</v>
       </c>
       <c r="C38" t="n">
-        <v>1666.692234311568</v>
+        <v>1239.995087064471</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.426535704818</v>
+        <v>881.7293884577205</v>
       </c>
       <c r="E38" t="n">
-        <v>1308.426535704818</v>
+        <v>794.8871255809611</v>
       </c>
       <c r="F38" t="n">
-        <v>935.5184433716075</v>
+        <v>794.8871255809611</v>
       </c>
       <c r="G38" t="n">
-        <v>517.8875490422932</v>
+        <v>377.2562312516467</v>
       </c>
       <c r="H38" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I38" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J38" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K38" t="n">
-        <v>389.2269329510182</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L38" t="n">
-        <v>858.0385289796761</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M38" t="n">
-        <v>1396.288305358449</v>
+        <v>1539.749514648084</v>
       </c>
       <c r="N38" t="n">
-        <v>1928.615528296033</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O38" t="n">
-        <v>2386.089392062488</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P38" t="n">
-        <v>2673.548223012698</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q38" t="n">
-        <v>2673.548223012698</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="R38" t="n">
-        <v>2639.431928304925</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S38" t="n">
-        <v>2639.431928304925</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="T38" t="n">
-        <v>2422.254591316102</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="U38" t="n">
-        <v>2422.254591316102</v>
+        <v>2385.696776044816</v>
       </c>
       <c r="V38" t="n">
-        <v>2422.254591316102</v>
+        <v>2385.696776044816</v>
       </c>
       <c r="W38" t="n">
-        <v>2422.254591316102</v>
+        <v>2385.696776044816</v>
       </c>
       <c r="X38" t="n">
-        <v>2422.254591316102</v>
+        <v>2385.696776044816</v>
       </c>
       <c r="Y38" t="n">
-        <v>2422.254591316102</v>
+        <v>1995.557444069004</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5939360354789</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K39" t="n">
-        <v>385.0320806555136</v>
+        <v>336.9091090802885</v>
       </c>
       <c r="L39" t="n">
-        <v>460.4220989731251</v>
+        <v>779.4310692483247</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.803575717106</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.93543226609</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O39" t="n">
-        <v>2109.608352848287</v>
+        <v>2109.608352848286</v>
       </c>
       <c r="P39" t="n">
-        <v>2479.190268972895</v>
+        <v>2479.190268972894</v>
       </c>
       <c r="Q39" t="n">
-        <v>2673.548223012698</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="R39" t="n">
         <v>2634.394200836497</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>595.4667591645755</v>
+        <v>694.568222085879</v>
       </c>
       <c r="C40" t="n">
-        <v>498.3906449528931</v>
+        <v>525.6320391579721</v>
       </c>
       <c r="D40" t="n">
-        <v>348.2740055405574</v>
+        <v>525.6320391579721</v>
       </c>
       <c r="E40" t="n">
-        <v>200.3609119581643</v>
+        <v>525.6320391579721</v>
       </c>
       <c r="F40" t="n">
-        <v>53.47096446025395</v>
+        <v>378.7420916600618</v>
       </c>
       <c r="G40" t="n">
-        <v>53.47096446025395</v>
+        <v>209.8916250557713</v>
       </c>
       <c r="H40" t="n">
         <v>53.47096446025395</v>
@@ -7347,37 +7347,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O40" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="U40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="V40" t="n">
-        <v>595.4667591645755</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="W40" t="n">
-        <v>595.4667591645755</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="X40" t="n">
-        <v>595.4667591645755</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.4667591645755</v>
+        <v>850.1512473704622</v>
       </c>
     </row>
     <row r="41">
@@ -7390,13 +7390,13 @@
         <v>632.1217087036472</v>
       </c>
       <c r="C41" t="n">
-        <v>426.8340662303921</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="D41" t="n">
         <v>426.8340662303921</v>
       </c>
       <c r="E41" t="n">
-        <v>221.5464237571369</v>
+        <v>426.8340662303921</v>
       </c>
       <c r="F41" t="n">
         <v>221.5464237571369</v>
@@ -7411,34 +7411,34 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J41" t="n">
-        <v>159.7199905735174</v>
+        <v>159.7199905735173</v>
       </c>
       <c r="K41" t="n">
-        <v>174.5720006188284</v>
+        <v>348.5083349496713</v>
       </c>
       <c r="L41" t="n">
-        <v>229.8989942425405</v>
+        <v>403.8353285733833</v>
       </c>
       <c r="M41" t="n">
-        <v>323.1303724634089</v>
+        <v>497.0667067942517</v>
       </c>
       <c r="N41" t="n">
-        <v>422.4841402331289</v>
+        <v>698.269125182289</v>
       </c>
       <c r="O41" t="n">
-        <v>591.057759870499</v>
+        <v>778.750809498626</v>
       </c>
       <c r="P41" t="n">
-        <v>625.2460145659632</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q41" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R41" t="n">
-        <v>778.8227694863174</v>
+        <v>800.7129237986583</v>
       </c>
       <c r="S41" t="n">
-        <v>778.8227694863174</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="T41" t="n">
         <v>632.1217087036472</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204.2031983942783</v>
+        <v>302.9251794271002</v>
       </c>
       <c r="C42" t="n">
-        <v>204.2031983942783</v>
+        <v>302.9251794271002</v>
       </c>
       <c r="D42" t="n">
-        <v>55.26878873302701</v>
+        <v>153.9907697658489</v>
       </c>
       <c r="E42" t="n">
-        <v>55.26878873302701</v>
+        <v>153.9907697658489</v>
       </c>
       <c r="F42" t="n">
-        <v>55.26878873302701</v>
+        <v>153.9907697658489</v>
       </c>
       <c r="G42" t="n">
-        <v>55.26878873302701</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H42" t="n">
         <v>16.2587812838818</v>
@@ -7490,52 +7490,52 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J42" t="n">
-        <v>16.2587812838818</v>
+        <v>108.0099150461124</v>
       </c>
       <c r="K42" t="n">
-        <v>37.87634126146366</v>
+        <v>165.221722587024</v>
       </c>
       <c r="L42" t="n">
-        <v>113.2663595790752</v>
+        <v>240.6117409046355</v>
       </c>
       <c r="M42" t="n">
-        <v>314.4687779671125</v>
+        <v>347.945204536117</v>
       </c>
       <c r="N42" t="n">
-        <v>515.6711963551498</v>
+        <v>472.5281104849822</v>
       </c>
       <c r="O42" t="n">
-        <v>607.4204208533847</v>
+        <v>564.2773349832171</v>
       </c>
       <c r="P42" t="n">
-        <v>808.6228392414221</v>
+        <v>618.581110154287</v>
       </c>
       <c r="Q42" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R42" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="S42" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="T42" t="n">
-        <v>614.7784833407885</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="U42" t="n">
-        <v>614.7784833407885</v>
+        <v>713.5004643736104</v>
       </c>
       <c r="V42" t="n">
-        <v>409.4908408675334</v>
+        <v>508.2128219003553</v>
       </c>
       <c r="W42" t="n">
-        <v>204.2031983942783</v>
+        <v>508.2128219003553</v>
       </c>
       <c r="X42" t="n">
-        <v>204.2031983942783</v>
+        <v>508.2128219003553</v>
       </c>
       <c r="Y42" t="n">
-        <v>204.2031983942783</v>
+        <v>302.9251794271002</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.6794418793991</v>
+        <v>164.1718748662749</v>
       </c>
       <c r="C43" t="n">
-        <v>172.6794418793991</v>
+        <v>164.1718748662749</v>
       </c>
       <c r="D43" t="n">
-        <v>172.6794418793991</v>
+        <v>164.1718748662749</v>
       </c>
       <c r="E43" t="n">
-        <v>172.6794418793991</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F43" t="n">
-        <v>172.6794418793991</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G43" t="n">
-        <v>172.6794418793991</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H43" t="n">
         <v>16.2587812838818</v>
@@ -7572,10 +7572,10 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K43" t="n">
-        <v>89.56556804894518</v>
+        <v>89.56556804894535</v>
       </c>
       <c r="L43" t="n">
-        <v>238.8994510678577</v>
+        <v>238.8994510678579</v>
       </c>
       <c r="M43" t="n">
         <v>406.740215650389</v>
@@ -7590,31 +7590,31 @@
         <v>812.9390641940902</v>
       </c>
       <c r="Q43" t="n">
-        <v>796.0268024849864</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="R43" t="n">
-        <v>796.0268024849864</v>
+        <v>671.5069898954284</v>
       </c>
       <c r="S43" t="n">
-        <v>788.5423692991645</v>
+        <v>466.2193474221733</v>
       </c>
       <c r="T43" t="n">
-        <v>788.5423692991645</v>
+        <v>466.2193474221733</v>
       </c>
       <c r="U43" t="n">
-        <v>583.2547268259094</v>
+        <v>260.9317049489182</v>
       </c>
       <c r="V43" t="n">
-        <v>583.2547268259094</v>
+        <v>260.9317049489182</v>
       </c>
       <c r="W43" t="n">
-        <v>377.9670843526543</v>
+        <v>164.1718748662749</v>
       </c>
       <c r="X43" t="n">
-        <v>172.6794418793991</v>
+        <v>164.1718748662749</v>
       </c>
       <c r="Y43" t="n">
-        <v>172.6794418793991</v>
+        <v>164.1718748662749</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>402.3637792475799</v>
+        <v>426.8340662303921</v>
       </c>
       <c r="C44" t="n">
-        <v>402.3637792475799</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="D44" t="n">
-        <v>402.3637792475799</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="E44" t="n">
-        <v>402.3637792475799</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="F44" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G44" t="n">
         <v>16.2587812838818</v>
@@ -7648,25 +7648,25 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J44" t="n">
-        <v>159.7199905735174</v>
+        <v>159.7199905735173</v>
       </c>
       <c r="K44" t="n">
-        <v>174.5720006188284</v>
+        <v>360.9224089615547</v>
       </c>
       <c r="L44" t="n">
-        <v>229.8989942425405</v>
+        <v>505.6839791917007</v>
       </c>
       <c r="M44" t="n">
-        <v>323.1303724634089</v>
+        <v>598.9153574125691</v>
       </c>
       <c r="N44" t="n">
-        <v>422.4841402331289</v>
+        <v>698.269125182289</v>
       </c>
       <c r="O44" t="n">
-        <v>502.9658245494659</v>
+        <v>778.750809498626</v>
       </c>
       <c r="P44" t="n">
-        <v>625.2460145659632</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q44" t="n">
         <v>812.9390641940902</v>
@@ -7684,16 +7684,16 @@
         <v>812.9390641940902</v>
       </c>
       <c r="V44" t="n">
-        <v>812.9390641940902</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="W44" t="n">
-        <v>812.9390641940902</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="X44" t="n">
-        <v>607.6514217208351</v>
+        <v>426.8340662303921</v>
       </c>
       <c r="Y44" t="n">
-        <v>402.3637792475799</v>
+        <v>426.8340662303921</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>208.34537051105</v>
+        <v>40.13003349098193</v>
       </c>
       <c r="C45" t="n">
-        <v>208.34537051105</v>
+        <v>40.13003349098193</v>
       </c>
       <c r="D45" t="n">
-        <v>208.34537051105</v>
+        <v>40.13003349098193</v>
       </c>
       <c r="E45" t="n">
-        <v>175.8911035857454</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F45" t="n">
-        <v>175.8911035857454</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G45" t="n">
-        <v>175.8911035857454</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H45" t="n">
-        <v>72.16862997485556</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I45" t="n">
         <v>16.2587812838818</v>
@@ -7730,22 +7730,22 @@
         <v>108.0099150461124</v>
       </c>
       <c r="K45" t="n">
-        <v>129.6274750236943</v>
+        <v>282.960164187655</v>
       </c>
       <c r="L45" t="n">
-        <v>205.0174933413058</v>
+        <v>358.3501825052666</v>
       </c>
       <c r="M45" t="n">
-        <v>312.3509569727873</v>
+        <v>465.6836461367481</v>
       </c>
       <c r="N45" t="n">
-        <v>436.9338629216526</v>
+        <v>666.8860645247854</v>
       </c>
       <c r="O45" t="n">
-        <v>564.2773349832171</v>
+        <v>758.6352890230203</v>
       </c>
       <c r="P45" t="n">
-        <v>618.581110154287</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q45" t="n">
         <v>812.9390641940902</v>
@@ -7766,10 +7766,10 @@
         <v>413.6330129843051</v>
       </c>
       <c r="W45" t="n">
-        <v>208.34537051105</v>
+        <v>413.6330129843051</v>
       </c>
       <c r="X45" t="n">
-        <v>208.34537051105</v>
+        <v>413.6330129843051</v>
       </c>
       <c r="Y45" t="n">
         <v>208.34537051105</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>197.0761367743249</v>
+        <v>636.4186658876096</v>
       </c>
       <c r="C46" t="n">
-        <v>197.0761367743249</v>
+        <v>467.4824829597026</v>
       </c>
       <c r="D46" t="n">
-        <v>197.0761367743249</v>
+        <v>467.4824829597026</v>
       </c>
       <c r="E46" t="n">
-        <v>172.6794418793991</v>
+        <v>319.5693893773095</v>
       </c>
       <c r="F46" t="n">
         <v>172.6794418793991</v>
@@ -7809,10 +7809,10 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K46" t="n">
-        <v>89.5655680489452</v>
+        <v>89.56556804894524</v>
       </c>
       <c r="L46" t="n">
-        <v>238.8994510678577</v>
+        <v>238.8994510678579</v>
       </c>
       <c r="M46" t="n">
         <v>406.740215650389</v>
@@ -7821,37 +7821,37 @@
         <v>576.0247184155553</v>
       </c>
       <c r="O46" t="n">
-        <v>716.3700606954425</v>
+        <v>716.3700606954424</v>
       </c>
       <c r="P46" t="n">
-        <v>812.9390641940903</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q46" t="n">
-        <v>812.9390641940903</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="R46" t="n">
-        <v>812.9390641940903</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="S46" t="n">
-        <v>607.6514217208352</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="T46" t="n">
-        <v>402.3637792475801</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="U46" t="n">
-        <v>402.3637792475801</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="V46" t="n">
-        <v>402.3637792475801</v>
+        <v>636.4186658876096</v>
       </c>
       <c r="W46" t="n">
-        <v>402.3637792475801</v>
+        <v>636.4186658876096</v>
       </c>
       <c r="X46" t="n">
-        <v>402.3637792475801</v>
+        <v>636.4186658876096</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.0761367743249</v>
+        <v>636.4186658876096</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>88.98175284952859</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>88.98175284952866</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>35.95378541750482</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>77.39344690825462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>99.17694920123634</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>148.3824678959267</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.75612203907819</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830051</v>
       </c>
       <c r="K14" t="n">
-        <v>169.5090351333243</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>147.3489139033589</v>
       </c>
       <c r="M14" t="n">
         <v>109.0616567345141</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>45.13029821777897</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>121.9401354259599</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.72605164159458</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.3988468792479</v>
+        <v>35.9537854175048</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>50.8761042350275</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.75612203907819</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>49.04443879304966</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,10 +9181,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>255.8288649037828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>64.43317834614876</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>49.04443879304966</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9418,10 +9418,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>255.8288649037828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,10 +9491,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O21" t="n">
-        <v>71.63103617046661</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>49.04443879304966</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,10 +9655,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>255.8288649037828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>313.0742992097755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>49.04443879304966</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,10 +9892,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>255.8288649037828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>192.5526512304452</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.75612203907819</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>370.8431469645324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,10 +10129,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>255.8288649037828</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>192.5526512304456</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.75612203907819</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,16 +10357,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>49.04443879304966</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>302.1297947344448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>157.1110912372911</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,16 +10597,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>36.8778297122013</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>255.8288649037828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>33.41312244926681</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>157.1110912372909</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>192.5526512304452</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.75612203907819</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10834,16 +10834,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>36.8778297122013</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>255.8288649037833</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>82.02218464646374</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>157.1110912372909</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>175.6932670008514</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,16 +11071,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>102.8774248669872</v>
       </c>
       <c r="O41" t="n">
-        <v>88.98175284952839</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.9537854175048</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>94.81712601672302</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>77.39344690825456</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>148.3824678959267</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.11594522359143</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>188.2327356997235</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>90.3379561681152</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>88.98175284952838</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>154.881504206021</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>77.39344690825465</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95378541750458</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>13.75612203907821</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.499075614958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23278,7 +23278,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I11" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.67125276921743</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>215.005563618935</v>
+        <v>11.77079757041247</v>
       </c>
       <c r="U11" t="n">
-        <v>47.96303468898478</v>
+        <v>47.96303468898483</v>
       </c>
       <c r="V11" t="n">
-        <v>124.5174924216123</v>
+        <v>146.1887451908299</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>73.19429479256139</v>
       </c>
       <c r="I12" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>196.1789750447687</v>
       </c>
       <c r="U12" t="n">
-        <v>171.9518076516273</v>
+        <v>225.8763262542601</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>2.538219154954874</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>93.51616371569961</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S13" t="n">
-        <v>161.7339204121066</v>
+        <v>6.334319310769814</v>
       </c>
       <c r="T13" t="n">
-        <v>21.16865803885668</v>
+        <v>21.16865803885673</v>
       </c>
       <c r="U13" t="n">
         <v>286.2738102244793</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.2882322880684</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>179.499075614958</v>
       </c>
       <c r="C14" t="n">
-        <v>162.038125722485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23515,7 +23515,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I14" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T14" t="n">
         <v>215.005563618935</v>
@@ -23554,16 +23554,16 @@
         <v>251.1978007375074</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>124.5174924216124</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>188.1675873991641</v>
+        <v>166.4963346299465</v>
       </c>
       <c r="Y14" t="n">
-        <v>183.003172607531</v>
+        <v>241.0038884812101</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>58.88591301765503</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H15" t="n">
         <v>102.6852488747809</v>
       </c>
       <c r="I15" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>196.1789750447687</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8763262542601</v>
+        <v>22.64156020573759</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>29.56582110090272</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>80.92201611961332</v>
       </c>
       <c r="X15" t="n">
-        <v>2.53821915495493</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>4.895919094721734</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H16" t="n">
         <v>154.8564539895622</v>
       </c>
       <c r="I16" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>34.74764850774388</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R16" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S16" t="n">
-        <v>6.334319310769786</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T16" t="n">
-        <v>21.16865803885673</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U16" t="n">
         <v>286.2738102244793</v>
       </c>
       <c r="V16" t="n">
-        <v>48.90287727530546</v>
+        <v>149.0288285028873</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>83.28823228806846</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>22.47488934051461</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>170.6053044768613</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S17" t="n">
         <v>166.905302944061</v>
       </c>
       <c r="T17" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>84.01662206862278</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7.261844799685207</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.1619619382476</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R19" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U19" t="n">
         <v>286.2738102244793</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>278.8608289827216</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>27.91850890907489</v>
+        <v>242.2290769853856</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S20" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>154.8564539895622</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R22" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>209.5690853592923</v>
+        <v>40.70318989366797</v>
       </c>
       <c r="T22" t="n">
         <v>224.4034240873793</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>36.22097180379208</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>305.0688037888829</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>343.1834777957584</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>25.63868163504048</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.1619619382476</v>
@@ -24384,7 +24384,7 @@
         <v>154.8564539895622</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J25" t="n">
         <v>34.74764850774388</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R25" t="n">
-        <v>140.017753555675</v>
+        <v>133.6701673949316</v>
       </c>
       <c r="S25" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>224.4034240873793</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>75.32377404132444</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>24.60472130458763</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.1619619382476</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R28" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S28" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T28" t="n">
-        <v>59.81623292934225</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U28" t="n">
         <v>286.2738102244793</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>53.13952000678503</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>131.7442845412605</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>232.3738656467703</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.1619619382476</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R31" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S31" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T31" t="n">
         <v>224.4034240873793</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>36.22097180379217</v>
       </c>
       <c r="W31" t="n">
-        <v>267.5118276378503</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>342.4924796906159</v>
       </c>
       <c r="E32" t="n">
-        <v>381.3410027068832</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>215.005563618935</v>
@@ -24976,16 +24976,16 @@
         <v>251.1978007375074</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.1619619382476</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R34" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S34" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V34" t="n">
-        <v>208.7998052353294</v>
+        <v>183.9196710259845</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>252.6976080578385</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>300.5136374822817</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U35" t="n">
         <v>251.1978007375074</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>154.8564539895622</v>
       </c>
       <c r="I37" t="n">
-        <v>130.5196601449082</v>
+        <v>56.48291711178015</v>
       </c>
       <c r="J37" t="n">
         <v>34.74764850774388</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R37" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S37" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>224.4034240873793</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>106.0933925163059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,10 +25399,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>295.95652982427</v>
       </c>
       <c r="F38" t="n">
-        <v>37.69703433183332</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>166.905302944061</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>25.80478515019996</v>
       </c>
       <c r="C40" t="n">
-        <v>71.14146802906231</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154.8564539895622</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>130.5196601449082</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R40" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S40" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T40" t="n">
         <v>224.4034240873793</v>
@@ -25608,7 +25608,7 @@
         <v>286.2738102244793</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>162.038125722485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>151.4482755721604</v>
       </c>
       <c r="E41" t="n">
-        <v>178.6956040237392</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>203.6412796931889</v>
       </c>
       <c r="G41" t="n">
         <v>210.2198193374986</v>
@@ -25648,7 +25648,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I41" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.67125276921744</v>
       </c>
       <c r="S41" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>69.77151344409154</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U41" t="n">
         <v>251.1978007375074</v>
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3546685971475</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>64.06534150012716</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I42" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>153.3157426947255</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.1789750447687</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8763262542601</v>
+        <v>166.1945943864243</v>
       </c>
       <c r="V42" t="n">
         <v>29.56582110090272</v>
       </c>
       <c r="W42" t="n">
-        <v>48.46021711239706</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>2.447929728781816</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>167.1619619382476</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>154.8564539895622</v>
       </c>
       <c r="I43" t="n">
         <v>130.5196601449082</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R43" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.1594965053287</v>
+        <v>6.334319310769814</v>
       </c>
       <c r="T43" t="n">
         <v>224.4034240873793</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>83.28823228806846</v>
+        <v>190.7307665547742</v>
       </c>
       <c r="X43" t="n">
-        <v>22.47488934051461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>162.038125722485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>227.8668638061729</v>
+        <v>203.6412796931889</v>
       </c>
       <c r="G44" t="n">
-        <v>210.2198193374986</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H44" t="n">
         <v>320.5474141234789</v>
       </c>
       <c r="I44" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S44" t="n">
         <v>166.905302944061</v>
@@ -25924,16 +25924,16 @@
         <v>251.1978007375074</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>124.5174924216124</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>166.4963346299465</v>
+        <v>190.7219187429305</v>
       </c>
       <c r="Y44" t="n">
-        <v>183.003172607531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>125.5153561993494</v>
+        <v>134.0125407703718</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25961,10 +25961,10 @@
         <v>136.3546685971475</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>29.56582110090272</v>
       </c>
       <c r="W45" t="n">
-        <v>48.46021711239706</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>2.447929728781816</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>122.2812347005926</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.1619619382476</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R46" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S46" t="n">
-        <v>6.334319310769786</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T46" t="n">
-        <v>21.16865803885673</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U46" t="n">
         <v>286.2738102244793</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>77.38244900041221</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.34988730357225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>400545.7934939154</v>
+        <v>400545.7934939155</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699309.3971619715</v>
+        <v>699309.3971619714</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699309.3971619713</v>
+        <v>699309.3971619714</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699309.3971619713</v>
+        <v>699309.3971619714</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699309.3971619713</v>
+        <v>699309.3971619714</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699309.3971619715</v>
+        <v>699309.3971619713</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>400545.7934939155</v>
+        <v>400545.7934939154</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698526</v>
@@ -26328,13 +26328,13 @@
         <v>263725.0790143213</v>
       </c>
       <c r="G2" t="n">
+        <v>423391.7468849212</v>
+      </c>
+      <c r="H2" t="n">
         <v>423391.7468849211</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>423391.7468849212</v>
-      </c>
-      <c r="I2" t="n">
-        <v>423391.7468849213</v>
       </c>
       <c r="J2" t="n">
         <v>423391.7468849212</v>
@@ -26343,13 +26343,13 @@
         <v>423391.7468849213</v>
       </c>
       <c r="L2" t="n">
-        <v>423391.7468849211</v>
+        <v>423391.7468849213</v>
       </c>
       <c r="M2" t="n">
-        <v>423391.7468849212</v>
+        <v>423391.7468849213</v>
       </c>
       <c r="N2" t="n">
-        <v>423391.7468849212</v>
+        <v>423391.7468849213</v>
       </c>
       <c r="O2" t="n">
         <v>263725.0790143213</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430028.1575176379</v>
+        <v>430028.1575176378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50646.91663835603</v>
+        <v>50646.916638356</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
+        <v>27869.33091242664</v>
+      </c>
+      <c r="F4" t="n">
         <v>27869.33091242663</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27869.33091242662</v>
       </c>
       <c r="G4" t="n">
         <v>101234.3528626864</v>
@@ -26459,7 +26459,7 @@
         <v>27869.33091242663</v>
       </c>
       <c r="P4" t="n">
-        <v>27869.33091242662</v>
+        <v>27869.33091242663</v>
       </c>
     </row>
     <row r="5">
@@ -26505,7 +26505,7 @@
         <v>50659.9999479457</v>
       </c>
       <c r="N5" t="n">
-        <v>50659.99994794572</v>
+        <v>50659.9999479457</v>
       </c>
       <c r="O5" t="n">
         <v>22378.74073390289</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145531.2111782127</v>
+        <v>145570.9333790256</v>
       </c>
       <c r="C6" t="n">
-        <v>145531.2111782125</v>
+        <v>145570.9333790255</v>
       </c>
       <c r="D6" t="n">
-        <v>145531.2111782127</v>
+        <v>145570.9333790257</v>
       </c>
       <c r="E6" t="n">
-        <v>-227983.2261543801</v>
+        <v>-217694.3577501194</v>
       </c>
       <c r="F6" t="n">
-        <v>202044.9313632578</v>
+        <v>212333.7997675183</v>
       </c>
       <c r="G6" t="n">
-        <v>138079.7999138073</v>
+        <v>143413.4958669113</v>
       </c>
       <c r="H6" t="n">
-        <v>265571.0652375069</v>
+        <v>270904.7611906108</v>
       </c>
       <c r="I6" t="n">
-        <v>265571.065237507</v>
+        <v>270904.7611906109</v>
       </c>
       <c r="J6" t="n">
-        <v>265571.0652375069</v>
+        <v>270904.7611906108</v>
       </c>
       <c r="K6" t="n">
-        <v>265571.065237507</v>
+        <v>270904.7611906109</v>
       </c>
       <c r="L6" t="n">
-        <v>265571.0652375068</v>
+        <v>270904.7611906109</v>
       </c>
       <c r="M6" t="n">
-        <v>214924.1485991509</v>
+        <v>220257.844552255</v>
       </c>
       <c r="N6" t="n">
-        <v>265571.0652375069</v>
+        <v>270904.761190611</v>
       </c>
       <c r="O6" t="n">
-        <v>202044.9313632578</v>
+        <v>212333.7997675183</v>
       </c>
       <c r="P6" t="n">
-        <v>202044.9313632578</v>
+        <v>212333.7997675183</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="F3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="G3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="H3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="I3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="J3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="K3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="L3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="M3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="N3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="O3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="P3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>203.2347660485226</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="F4" t="n">
         <v>203.2347660485225</v>
@@ -26825,7 +26825,7 @@
         <v>668.3870557531743</v>
       </c>
       <c r="N4" t="n">
-        <v>668.3870557531744</v>
+        <v>668.3870557531743</v>
       </c>
       <c r="O4" t="n">
         <v>203.2347660485225</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>203.2347660485226</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2347660485226</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>203.2347660485226</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I11" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J11" t="n">
         <v>156.8596017683858</v>
@@ -31773,7 +31773,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N11" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O11" t="n">
         <v>311.3928420442493</v>
@@ -31785,7 +31785,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R11" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S11" t="n">
         <v>42.11476664218432</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H12" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I12" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J12" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K12" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L12" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M12" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N12" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O12" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P12" t="n">
         <v>188.8267055669261</v>
@@ -31864,10 +31864,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R12" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S12" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T12" t="n">
         <v>3.985753650052943</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H13" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I13" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J13" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K13" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L13" t="n">
         <v>123.2522808193935</v>
@@ -31940,10 +31940,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R13" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S13" t="n">
         <v>14.44751267767991</v>
@@ -31995,7 +31995,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I14" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J14" t="n">
         <v>156.8596017683858</v>
@@ -32010,7 +32010,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N14" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O14" t="n">
         <v>311.3928420442493</v>
@@ -32022,7 +32022,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R14" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S14" t="n">
         <v>42.11476664218432</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H15" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I15" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J15" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K15" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L15" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M15" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N15" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O15" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P15" t="n">
         <v>188.8267055669261</v>
@@ -32101,10 +32101,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R15" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S15" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T15" t="n">
         <v>3.985753650052943</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H16" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I16" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J16" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K16" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L16" t="n">
         <v>123.2522808193935</v>
@@ -32177,10 +32177,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R16" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S16" t="n">
         <v>14.44751267767991</v>
@@ -32232,7 +32232,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I17" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J17" t="n">
         <v>156.8596017683858</v>
@@ -32247,7 +32247,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N17" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O17" t="n">
         <v>311.3928420442493</v>
@@ -32259,7 +32259,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R17" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S17" t="n">
         <v>42.11476664218432</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H18" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I18" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J18" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K18" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L18" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M18" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N18" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P18" t="n">
         <v>188.8267055669261</v>
@@ -32338,10 +32338,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R18" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S18" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T18" t="n">
         <v>3.985753650052943</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H19" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I19" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J19" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K19" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L19" t="n">
         <v>123.2522808193935</v>
@@ -32414,10 +32414,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R19" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S19" t="n">
         <v>14.44751267767991</v>
@@ -32469,7 +32469,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I20" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J20" t="n">
         <v>156.8596017683858</v>
@@ -32484,7 +32484,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N20" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O20" t="n">
         <v>311.3928420442493</v>
@@ -32496,7 +32496,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R20" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S20" t="n">
         <v>42.11476664218432</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H21" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I21" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J21" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K21" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L21" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M21" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N21" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O21" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P21" t="n">
         <v>188.8267055669261</v>
@@ -32575,10 +32575,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R21" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S21" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T21" t="n">
         <v>3.985753650052943</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H22" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I22" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J22" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K22" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L22" t="n">
         <v>123.2522808193935</v>
@@ -32651,10 +32651,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R22" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S22" t="n">
         <v>14.44751267767991</v>
@@ -32706,7 +32706,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I23" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J23" t="n">
         <v>156.8596017683858</v>
@@ -32721,7 +32721,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N23" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O23" t="n">
         <v>311.3928420442493</v>
@@ -32733,7 +32733,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R23" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S23" t="n">
         <v>42.11476664218432</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H24" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I24" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J24" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K24" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L24" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M24" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N24" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O24" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P24" t="n">
         <v>188.8267055669261</v>
@@ -32812,10 +32812,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R24" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S24" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T24" t="n">
         <v>3.985753650052943</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H25" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I25" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J25" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K25" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L25" t="n">
         <v>123.2522808193935</v>
@@ -32888,10 +32888,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R25" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S25" t="n">
         <v>14.44751267767991</v>
@@ -32943,7 +32943,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I26" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J26" t="n">
         <v>156.8596017683858</v>
@@ -32958,7 +32958,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N26" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O26" t="n">
         <v>311.3928420442493</v>
@@ -32970,7 +32970,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R26" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S26" t="n">
         <v>42.11476664218432</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H27" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I27" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J27" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K27" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L27" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M27" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N27" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O27" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P27" t="n">
         <v>188.8267055669261</v>
@@ -33049,10 +33049,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R27" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S27" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T27" t="n">
         <v>3.985753650052943</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H28" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I28" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J28" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K28" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L28" t="n">
         <v>123.2522808193935</v>
@@ -33125,10 +33125,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R28" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S28" t="n">
         <v>14.44751267767991</v>
@@ -33180,7 +33180,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I29" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J29" t="n">
         <v>156.8596017683858</v>
@@ -33195,7 +33195,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N29" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O29" t="n">
         <v>311.3928420442493</v>
@@ -33207,7 +33207,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R29" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S29" t="n">
         <v>42.11476664218432</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H30" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I30" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J30" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K30" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L30" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M30" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N30" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O30" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P30" t="n">
         <v>188.8267055669261</v>
@@ -33286,10 +33286,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R30" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S30" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T30" t="n">
         <v>3.985753650052943</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H31" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I31" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J31" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K31" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L31" t="n">
         <v>123.2522808193935</v>
@@ -33362,10 +33362,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R31" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S31" t="n">
         <v>14.44751267767991</v>
@@ -33417,7 +33417,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I32" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J32" t="n">
         <v>156.8596017683858</v>
@@ -33432,7 +33432,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N32" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O32" t="n">
         <v>311.3928420442493</v>
@@ -33444,7 +33444,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R32" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S32" t="n">
         <v>42.11476664218432</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H33" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I33" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J33" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K33" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L33" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M33" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N33" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O33" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P33" t="n">
         <v>188.8267055669261</v>
@@ -33523,10 +33523,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R33" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S33" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T33" t="n">
         <v>3.985753650052943</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H34" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I34" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J34" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K34" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L34" t="n">
         <v>123.2522808193935</v>
@@ -33599,10 +33599,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R34" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S34" t="n">
         <v>14.44751267767991</v>
@@ -33654,7 +33654,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I35" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J35" t="n">
         <v>156.8596017683858</v>
@@ -33669,7 +33669,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N35" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O35" t="n">
         <v>311.3928420442493</v>
@@ -33681,7 +33681,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R35" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S35" t="n">
         <v>42.11476664218432</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H36" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I36" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J36" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K36" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L36" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M36" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N36" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O36" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P36" t="n">
         <v>188.8267055669261</v>
@@ -33760,10 +33760,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R36" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S36" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T36" t="n">
         <v>3.985753650052943</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H37" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I37" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J37" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K37" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L37" t="n">
         <v>123.2522808193935</v>
@@ -33836,10 +33836,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R37" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S37" t="n">
         <v>14.44751267767991</v>
@@ -33891,7 +33891,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I38" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J38" t="n">
         <v>156.8596017683858</v>
@@ -33906,7 +33906,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N38" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O38" t="n">
         <v>311.3928420442493</v>
@@ -33918,7 +33918,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R38" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S38" t="n">
         <v>42.11476664218432</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H39" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I39" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J39" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K39" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L39" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M39" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N39" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O39" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P39" t="n">
         <v>188.8267055669261</v>
@@ -33997,10 +33997,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R39" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S39" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T39" t="n">
         <v>3.985753650052943</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H40" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I40" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J40" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K40" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L40" t="n">
         <v>123.2522808193935</v>
@@ -34073,10 +34073,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R40" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S40" t="n">
         <v>14.44751267767991</v>
@@ -34128,7 +34128,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I41" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J41" t="n">
         <v>156.8596017683858</v>
@@ -34143,7 +34143,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N41" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O41" t="n">
         <v>311.3928420442493</v>
@@ -34155,7 +34155,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R41" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S41" t="n">
         <v>42.11476664218432</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H42" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I42" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J42" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K42" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L42" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M42" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N42" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O42" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P42" t="n">
         <v>188.8267055669261</v>
@@ -34234,10 +34234,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R42" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S42" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T42" t="n">
         <v>3.985753650052943</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H43" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I43" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J43" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K43" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L43" t="n">
         <v>123.2522808193935</v>
@@ -34310,10 +34310,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R43" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S43" t="n">
         <v>14.44751267767991</v>
@@ -34365,7 +34365,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I44" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J44" t="n">
         <v>156.8596017683858</v>
@@ -34380,7 +34380,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N44" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O44" t="n">
         <v>311.3928420442493</v>
@@ -34392,7 +34392,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R44" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S44" t="n">
         <v>42.11476664218432</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H45" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I45" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J45" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K45" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L45" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M45" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N45" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O45" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P45" t="n">
         <v>188.8267055669261</v>
@@ -34471,10 +34471,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R45" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S45" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T45" t="n">
         <v>3.985753650052943</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H46" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I46" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J46" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K46" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L46" t="n">
         <v>123.2522808193935</v>
@@ -34547,10 +34547,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R46" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S46" t="n">
         <v>14.44751267767991</v>
@@ -35412,22 +35412,22 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K11" t="n">
-        <v>103.9837831983277</v>
+        <v>15.00203034879905</v>
       </c>
       <c r="L11" t="n">
-        <v>55.88585214516371</v>
+        <v>55.88585214516365</v>
       </c>
       <c r="M11" t="n">
-        <v>94.17310931400849</v>
+        <v>94.17310931400843</v>
       </c>
       <c r="N11" t="n">
-        <v>100.3573411815354</v>
+        <v>100.3573411815353</v>
       </c>
       <c r="O11" t="n">
         <v>81.29463062256261</v>
       </c>
       <c r="P11" t="n">
-        <v>34.53359060147898</v>
+        <v>123.5153434510076</v>
       </c>
       <c r="Q11" t="n">
         <v>189.5889390183101</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K12" t="n">
-        <v>21.8359191692746</v>
+        <v>21.83591916927458</v>
       </c>
       <c r="L12" t="n">
-        <v>76.15153365415307</v>
+        <v>112.1053190716579</v>
       </c>
       <c r="M12" t="n">
         <v>108.4176400317995</v>
       </c>
       <c r="N12" t="n">
-        <v>203.2347660485226</v>
+        <v>125.8413191402679</v>
       </c>
       <c r="O12" t="n">
-        <v>191.8529335428878</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P12" t="n">
-        <v>203.2347660485226</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L13" t="n">
         <v>150.8423060797097</v>
@@ -35585,7 +35585,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P13" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>184.5110654821234</v>
+        <v>15.00203034879905</v>
       </c>
       <c r="L14" t="n">
-        <v>55.88585214516371</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="M14" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="N14" t="n">
-        <v>100.3573411815354</v>
+        <v>145.4876393993143</v>
       </c>
       <c r="O14" t="n">
-        <v>81.29463062256261</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="P14" t="n">
-        <v>34.53359060147898</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.67791289114203</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K15" t="n">
-        <v>203.2347660485225</v>
+        <v>57.78970458677937</v>
       </c>
       <c r="L15" t="n">
-        <v>76.15153365415307</v>
+        <v>76.15153365415304</v>
       </c>
       <c r="M15" t="n">
         <v>108.4176400317995</v>
       </c>
       <c r="N15" t="n">
-        <v>125.841319140268</v>
+        <v>125.8413191402679</v>
       </c>
       <c r="O15" t="n">
-        <v>92.67598434165143</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P15" t="n">
-        <v>105.7284023876234</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L16" t="n">
         <v>150.8423060797097</v>
@@ -35822,7 +35822,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P16" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K17" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L17" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M17" t="n">
-        <v>543.686642806841</v>
+        <v>143.2175481070581</v>
       </c>
       <c r="N17" t="n">
         <v>537.7042655935195</v>
@@ -35901,10 +35901,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P17" t="n">
-        <v>290.3624555052618</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>92.67791289114203</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K18" t="n">
         <v>286.3011561818532</v>
@@ -35980,7 +35980,7 @@
         <v>486.538303618381</v>
       </c>
       <c r="P18" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q18" t="n">
         <v>196.3211656967709</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L19" t="n">
         <v>150.8423060797097</v>
@@ -36059,7 +36059,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P19" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K20" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L20" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M20" t="n">
-        <v>543.686642806841</v>
+        <v>143.2175481070581</v>
       </c>
       <c r="N20" t="n">
         <v>537.7042655935195</v>
@@ -36138,10 +36138,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P20" t="n">
-        <v>290.3624555052618</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K21" t="n">
         <v>286.3011561818532</v>
@@ -36211,13 +36211,13 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N21" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O21" t="n">
-        <v>164.307020512118</v>
+        <v>486.538303618381</v>
       </c>
       <c r="P21" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q21" t="n">
         <v>196.3211656967709</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L22" t="n">
         <v>150.8423060797097</v>
@@ -36296,7 +36296,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P22" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K23" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L23" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M23" t="n">
-        <v>543.686642806841</v>
+        <v>143.2175481070581</v>
       </c>
       <c r="N23" t="n">
         <v>537.7042655935195</v>
@@ -36375,10 +36375,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P23" t="n">
-        <v>290.3624555052618</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K24" t="n">
-        <v>21.8359191692746</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L24" t="n">
-        <v>389.2258328639286</v>
+        <v>446.9918789576122</v>
       </c>
       <c r="M24" t="n">
         <v>574.1227037817994</v>
       </c>
       <c r="N24" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O24" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P24" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q24" t="n">
         <v>196.3211656967709</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L25" t="n">
         <v>150.8423060797097</v>
@@ -36533,7 +36533,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P25" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K26" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L26" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M26" t="n">
-        <v>543.686642806841</v>
+        <v>143.2175481070581</v>
       </c>
       <c r="N26" t="n">
         <v>537.7042655935195</v>
@@ -36612,10 +36612,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P26" t="n">
-        <v>290.3624555052618</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K27" t="n">
         <v>286.3011561818532</v>
@@ -36685,16 +36685,16 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N27" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O27" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P27" t="n">
-        <v>247.4049493830411</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L28" t="n">
         <v>150.8423060797097</v>
@@ -36770,7 +36770,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P28" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K29" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L29" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M29" t="n">
-        <v>543.686642806841</v>
+        <v>465.0162562785408</v>
       </c>
       <c r="N29" t="n">
         <v>537.7042655935195</v>
@@ -36849,10 +36849,10 @@
         <v>462.094811885308</v>
       </c>
       <c r="P29" t="n">
-        <v>290.3624555052618</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K30" t="n">
         <v>286.3011561818532</v>
@@ -36922,16 +36922,16 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N30" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O30" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P30" t="n">
-        <v>247.4049493830415</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L31" t="n">
         <v>150.8423060797097</v>
@@ -37007,7 +37007,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P31" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K32" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L32" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M32" t="n">
-        <v>543.686642806841</v>
+        <v>143.2175481070581</v>
       </c>
       <c r="N32" t="n">
         <v>537.7042655935195</v>
       </c>
       <c r="O32" t="n">
-        <v>383.4244253570074</v>
+        <v>462.094811885308</v>
       </c>
       <c r="P32" t="n">
-        <v>34.53359060147898</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q32" t="n">
         <v>189.5889390183101</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K33" t="n">
         <v>286.3011561818532</v>
@@ -37159,13 +37159,13 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N33" t="n">
-        <v>282.9524103775591</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O33" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P33" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q33" t="n">
         <v>196.3211656967709</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L34" t="n">
         <v>150.8423060797097</v>
@@ -37244,7 +37244,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P34" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K35" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L35" t="n">
         <v>473.5470666956141</v>
@@ -37317,16 +37317,16 @@
         <v>543.686642806841</v>
       </c>
       <c r="N35" t="n">
-        <v>537.7042655935195</v>
+        <v>137.2351708937366</v>
       </c>
       <c r="O35" t="n">
         <v>462.094811885308</v>
       </c>
       <c r="P35" t="n">
-        <v>290.3624555052618</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N36" t="n">
-        <v>605.1836934838216</v>
+        <v>282.9524103775589</v>
       </c>
       <c r="O36" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P36" t="n">
-        <v>247.4049493830411</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L37" t="n">
         <v>150.8423060797097</v>
@@ -37481,7 +37481,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P37" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K38" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L38" t="n">
         <v>473.5470666956141</v>
@@ -37554,16 +37554,16 @@
         <v>543.686642806841</v>
       </c>
       <c r="N38" t="n">
-        <v>537.7042655935195</v>
+        <v>137.2351708937366</v>
       </c>
       <c r="O38" t="n">
         <v>462.094811885308</v>
       </c>
       <c r="P38" t="n">
-        <v>290.3624555052622</v>
+        <v>356.3322987729616</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>48.60906219719693</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>286.3011561818532</v>
       </c>
       <c r="L39" t="n">
-        <v>76.15153365415307</v>
+        <v>446.9918789576122</v>
       </c>
       <c r="M39" t="n">
         <v>574.1227037817994</v>
       </c>
       <c r="N39" t="n">
-        <v>605.1836934838216</v>
+        <v>282.9524103775589</v>
       </c>
       <c r="O39" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P39" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q39" t="n">
         <v>196.3211656967709</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L40" t="n">
         <v>150.8423060797097</v>
@@ -37718,7 +37718,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P40" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K41" t="n">
-        <v>15.00203034879908</v>
+        <v>190.6952973496505</v>
       </c>
       <c r="L41" t="n">
-        <v>55.88585214516371</v>
+        <v>55.88585214516365</v>
       </c>
       <c r="M41" t="n">
-        <v>94.17310931400849</v>
+        <v>94.17310931400843</v>
       </c>
       <c r="N41" t="n">
-        <v>100.3573411815354</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="O41" t="n">
-        <v>170.276383472091</v>
+        <v>81.29463062256261</v>
       </c>
       <c r="P41" t="n">
-        <v>34.53359060147898</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q41" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K42" t="n">
-        <v>21.8359191692746</v>
+        <v>57.78970458677937</v>
       </c>
       <c r="L42" t="n">
-        <v>76.15153365415307</v>
+        <v>76.15153365415304</v>
       </c>
       <c r="M42" t="n">
-        <v>203.2347660485225</v>
+        <v>108.4176400317995</v>
       </c>
       <c r="N42" t="n">
-        <v>203.2347660485225</v>
+        <v>125.8413191402679</v>
       </c>
       <c r="O42" t="n">
-        <v>92.67598434165143</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P42" t="n">
-        <v>203.2347660485225</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.359823184513241</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L43" t="n">
         <v>150.8423060797097</v>
@@ -37955,7 +37955,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P43" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K44" t="n">
-        <v>15.00203034879908</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="L44" t="n">
-        <v>55.88585214516371</v>
+        <v>146.2238083132789</v>
       </c>
       <c r="M44" t="n">
-        <v>94.17310931400849</v>
+        <v>94.17310931400843</v>
       </c>
       <c r="N44" t="n">
-        <v>100.3573411815354</v>
+        <v>100.3573411815353</v>
       </c>
       <c r="O44" t="n">
         <v>81.29463062256261</v>
       </c>
       <c r="P44" t="n">
-        <v>123.5153434510074</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>92.67791289114203</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K45" t="n">
-        <v>21.8359191692746</v>
+        <v>176.7174233752956</v>
       </c>
       <c r="L45" t="n">
-        <v>76.15153365415307</v>
+        <v>76.15153365415304</v>
       </c>
       <c r="M45" t="n">
         <v>108.4176400317995</v>
       </c>
       <c r="N45" t="n">
-        <v>125.841319140268</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="O45" t="n">
-        <v>128.629769759156</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P45" t="n">
-        <v>54.85229815259589</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.3211656967709</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L46" t="n">
         <v>150.8423060797097</v>
@@ -38192,7 +38192,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P46" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
